--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB193DA0-6412-4D78-AE79-9AEBA86E2AB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA998C26-79EA-4EE4-A022-D0C49D7E730A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{6B583061-8CCE-48C2-A899-3291AA3A1814}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="generador" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>lit_id_litigio</t>
   </si>
@@ -33,18 +34,6 @@
     <t>id_organization</t>
   </si>
   <si>
-    <t>col1</t>
-  </si>
-  <si>
-    <t>col2</t>
-  </si>
-  <si>
-    <t>col3</t>
-  </si>
-  <si>
-    <t>col4</t>
-  </si>
-  <si>
     <t>m4sll_pedido_det</t>
   </si>
   <si>
@@ -54,30 +43,18 @@
     <t>m4sll_doc_litigios</t>
   </si>
   <si>
-    <t>CantCols</t>
-  </si>
-  <si>
     <t>m4sll_lit_seguimie</t>
   </si>
   <si>
-    <t>nombretablaOLD</t>
-  </si>
-  <si>
     <t>nombretablaNEW</t>
   </si>
   <si>
-    <t>pksOLD</t>
-  </si>
-  <si>
     <t>pksNEW</t>
   </si>
   <si>
     <t>Comando</t>
   </si>
   <si>
-    <t>dol_secuencia, lit_id_litigio, id_organization</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -90,22 +67,127 @@
     <t>m4sll_litigios</t>
   </si>
   <si>
-    <t>clean and process</t>
-  </si>
-  <si>
-    <t>final concat</t>
-  </si>
-  <si>
-    <t>Concatenar columnas independientemente de cual esté completa</t>
-  </si>
-  <si>
     <t>lit_id_litigio,id_organization</t>
   </si>
   <si>
-    <t>Templates</t>
-  </si>
-  <si>
     <t>Generar comando</t>
+  </si>
+  <si>
+    <t>lit_id_litigio, id_organization,dol_secuencia</t>
+  </si>
+  <si>
+    <t>Concatenador de columnas independientemente de cual esté completa</t>
+  </si>
+  <si>
+    <t>procesar</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>Templates asociados a cierta cantidad de columnas y si cuenta con una secuencia entre las pks</t>
+  </si>
+  <si>
+    <t>Pk1</t>
+  </si>
+  <si>
+    <t>Pk2</t>
+  </si>
+  <si>
+    <t>Pk3</t>
+  </si>
+  <si>
+    <t>Pk4</t>
+  </si>
+  <si>
+    <t>CantPks</t>
+  </si>
+  <si>
+    <t>Template tabla</t>
+  </si>
+  <si>
+    <t>Pks Template</t>
+  </si>
+  <si>
+    <t>select tab.table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       tab.table_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       tco.constraint_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       string_agg(kcu.column_name, ',' order by kcu.column_name desc) as key_columns,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   string_agg(col.data_type, ',' order by col.column_name desc) as key_data_types</t>
+  </si>
+  <si>
+    <t>from information_schema.tables tab</t>
+  </si>
+  <si>
+    <t>left join information_schema.table_constraints tco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          on tco.table_schema = tab.table_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          and tco.table_name = tab.table_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          and tco.constraint_type = 'PRIMARY KEY'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left join information_schema.key_column_usage kcu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          on kcu.constraint_name = tco.constraint_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          and kcu.constraint_schema = tco.constraint_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          and kcu.constraint_name = tco.constraint_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left join information_schema.columns col </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          on col.column_name = kcu.column_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          and col.table_schema = kcu.table_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          and col.table_name = kcu.table_name</t>
+  </si>
+  <si>
+    <t>where tab.table_schema not in ('pg_catalog', 'information_schema')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      and tab.table_type = 'BASE TABLE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  and tab.table_schema = 'sll'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  and tab.table_name = lower('m4sll_doc_litigios')</t>
+  </si>
+  <si>
+    <t>group by tab.table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         tab.table_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         tco.constraint_name</t>
+  </si>
+  <si>
+    <t>order by tab.table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         tab.table_name</t>
   </si>
 </sst>
 </file>
@@ -116,6 +198,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,15 +224,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,11 +234,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,21 +266,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,224 +607,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C95634-6815-48B1-861A-4160D7F81E45}">
-  <dimension ref="B1:J15"/>
+  <dimension ref="C6:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1" t="str">
-        <f>LOWER(SUBSTITUTE(IF(NOT(ISBLANK(C4)),C4&amp;",","")&amp;IF(NOT(ISBLANK(D4)),D4&amp;",","")&amp;IF(NOT(ISBLANK(E4)),E4&amp;",","")&amp;IF(NOT(ISBLANK(F4)),F4&amp;",","")," ",""))</f>
-        <v>lit_id_litigio,id_organization,</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f>LEFT(G4,LEN(G4)-1)</f>
-        <v>lit_id_litigio,id_organization</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="3" t="str">
+        <f>E17</f>
+        <v>CantPks</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>F17</f>
+        <v>secuencia?</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>G17</f>
+        <v>index</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f>H17</f>
+        <v>Template tabla</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f>I17</f>
+        <v>Pks Template</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <f>LEN(D8)-LEN(SUBSTITUTE(D8,",",""))+1</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <f>ISNUMBER(SEARCH("secuencia",LOWER(D8)))</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>E8&amp;F8</f>
+        <v>3TRUE</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>+VLOOKUP(G8,G18:I31,2,FALSE)</f>
+        <v>m4sll_lit_seguimie</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>+VLOOKUP(G8,G18:I131,3,FALSE)</f>
+        <v>lit_id_litigio,id_organization,lis_secuencia</v>
+      </c>
+      <c r="J8" s="6" t="str">
+        <f>LOWER("python generarentidades.py "&amp;C8&amp;" "&amp;SUBSTITUTE(D8," ","")&amp;" "&amp;H8&amp;" "&amp;I8)</f>
+        <v>python generarentidades.py m4sll_doc_litigios lit_id_litigio,id_organization,dol_secuencia m4sll_lit_seguimie lit_id_litigio,id_organization,lis_secuencia</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1" t="str">
+        <f>LOWER(SUBSTITUTE(IF(NOT(ISBLANK(E14)),E14&amp;",","")&amp;IF(NOT(ISBLANK(F14)),F14&amp;",","")&amp;IF(NOT(ISBLANK(G14)),G14&amp;",","")&amp;IF(NOT(ISBLANK(H14)),H14&amp;",","")," ",""))</f>
+        <v>lit_id_litigio,id_organization,</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>LEFT(I14,LEN(I14)-1)</f>
+        <v>lit_id_litigio,id_organization</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <f>LEN(I18)-LEN(SUBSTITUTE(I18,",",""))+1</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <f>ISNUMBER(SEARCH("secuencia",I18))</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>E18&amp;F18</f>
+        <v>4TRUE</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <f>LEN(I19)-LEN(SUBSTITUTE(I19,",",""))+1</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <f>ISNUMBER(SEARCH("secuencia",I19))</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>E19&amp;F19</f>
+        <v>3TRUE</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <f>LEN(I20)-LEN(SUBSTITUTE(I20,",",""))+1</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <f>ISNUMBER(SEARCH("secuencia",I20))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>E20&amp;F20</f>
+        <v>2FALSE</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <f>LEN(G8)-LEN(SUBSTITUTE(G8,",",""))+1</f>
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <f>ISNUMBER(SEARCH("secuencia",G8))</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f>C8&amp;D8</f>
-        <v>4TRUE</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
-        <f>LEN(G9)-LEN(SUBSTITUTE(G9,",",""))+1</f>
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <f>ISNUMBER(SEARCH("secuencia",G9))</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f>C9&amp;D9</f>
-        <v>3TRUE</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
-        <f>LEN(G10)-LEN(SUBSTITUTE(G10,",",""))+1</f>
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="b">
-        <f>ISNUMBER(SEARCH("secuencia",G10))</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f>C10&amp;D10</f>
-        <v>2FALSE</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="str">
-        <f>C7</f>
-        <v>CantCols</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f>D7</f>
-        <v>secuencia?</v>
-      </c>
-      <c r="G14" s="3" t="str">
-        <f>E7</f>
-        <v>index</v>
-      </c>
-      <c r="H14" s="3" t="str">
-        <f>F7</f>
-        <v>nombretablaOLD</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f>G7</f>
-        <v>pksOLD</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1">
-        <f>LEN(D15)-LEN(SUBSTITUTE(D15,",",""))+1</f>
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <f>ISNUMBER(SEARCH("secuencia",LOWER(D15)))</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f>E15&amp;F15</f>
-        <v>3TRUE</v>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f>+VLOOKUP(G15,E7:G12,2,FALSE)</f>
-        <v>m4sll_lit_seguimie</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f>+VLOOKUP(G15,E7:G9,3,FALSE)</f>
-        <v>lit_id_litigio,id_organization,lis_secuencia</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f>LOWER("python generarentidades.py "&amp;C15&amp;" "&amp;SUBSTITUTE(D15," ","")&amp;" "&amp;H15&amp;" "&amp;I15)</f>
-        <v>python generarentidades.py m4sll_doc_litigios dol_secuencia,lit_id_litigio,id_organization m4sll_lit_seguimie lit_id_litigio,id_organization,lis_secuencia</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E16:I16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED72078-21C9-4990-ABD2-8863B6C157AD}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA998C26-79EA-4EE4-A022-D0C49D7E730A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD4D08F-E516-4BAB-B58D-209BB9778B47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{6B583061-8CCE-48C2-A899-3291AA3A1814}"/>
   </bookViews>
   <sheets>
     <sheet name="generador" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Datatypes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
-  <si>
-    <t>lit_id_litigio</t>
-  </si>
-  <si>
-    <t>id_organization</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="208">
   <si>
     <t>m4sll_pedido_det</t>
   </si>
@@ -43,9 +39,6 @@
     <t>m4sll_doc_litigios</t>
   </si>
   <si>
-    <t>m4sll_lit_seguimie</t>
-  </si>
-  <si>
     <t>nombretablaNEW</t>
   </si>
   <si>
@@ -58,57 +51,21 @@
     <t>index</t>
   </si>
   <si>
-    <t>lit_id_litigio,tpe_id_pedido,id_organization,pde_secuencia</t>
-  </si>
-  <si>
-    <t>lit_id_litigio,id_organization,lis_secuencia</t>
-  </si>
-  <si>
     <t>m4sll_litigios</t>
   </si>
   <si>
-    <t>lit_id_litigio,id_organization</t>
-  </si>
-  <si>
     <t>Generar comando</t>
   </si>
   <si>
     <t>lit_id_litigio, id_organization,dol_secuencia</t>
   </si>
   <si>
-    <t>Concatenador de columnas independientemente de cual esté completa</t>
-  </si>
-  <si>
-    <t>procesar</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>Templates asociados a cierta cantidad de columnas y si cuenta con una secuencia entre las pks</t>
   </si>
   <si>
-    <t>Pk1</t>
-  </si>
-  <si>
-    <t>Pk2</t>
-  </si>
-  <si>
-    <t>Pk3</t>
-  </si>
-  <si>
-    <t>Pk4</t>
-  </si>
-  <si>
-    <t>CantPks</t>
-  </si>
-  <si>
     <t>Template tabla</t>
   </si>
   <si>
-    <t>Pks Template</t>
-  </si>
-  <si>
     <t>select tab.table_schema,</t>
   </si>
   <si>
@@ -188,13 +145,520 @@
   </si>
   <si>
     <t xml:space="preserve">         tab.table_name</t>
+  </si>
+  <si>
+    <t>Data type on the server</t>
+  </si>
+  <si>
+    <t>Java data type</t>
+  </si>
+  <si>
+    <t>Data types prescribed by java.sql.Types</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>java.sql.Types.CHAR</t>
+  </si>
+  <si>
+    <t>national character</t>
+  </si>
+  <si>
+    <t>java.sql.Types.NCHAR</t>
+  </si>
+  <si>
+    <t>character varying</t>
+  </si>
+  <si>
+    <t>java.sql.Types.VARCHAR</t>
+  </si>
+  <si>
+    <t>national character varying</t>
+  </si>
+  <si>
+    <t>java.sql.Types.NVARCHAR</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>bytea</t>
+  </si>
+  <si>
+    <t>byte[]</t>
+  </si>
+  <si>
+    <t>java.sql.Types.BINARY</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>java.sql.Types.SMALLINT</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>java.sql.Types.INTEGER</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>java.sql.Types.BIGINT</t>
+  </si>
+  <si>
+    <t>smallserial</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>bigserial</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>java.sql.Types.REAL</t>
+  </si>
+  <si>
+    <t>double precision</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>java.sql.Types.DOUBLE</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>java.math.BigDecimal</t>
+  </si>
+  <si>
+    <t>java.sql.Types.NUMERIC</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>java.sql.Types.DECIMAL</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>java.sql.Types.OTHER</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>java.sql.Date</t>
+  </si>
+  <si>
+    <t>java.sql.Types.DATE</t>
+  </si>
+  <si>
+    <t>time with time zone</t>
+  </si>
+  <si>
+    <t>java.sql.Time</t>
+  </si>
+  <si>
+    <t>java.sql.Types.TIME</t>
+  </si>
+  <si>
+    <t>time without time zone</t>
+  </si>
+  <si>
+    <t>timestamp without time zone</t>
+  </si>
+  <si>
+    <t>java.sql.Timestamp</t>
+  </si>
+  <si>
+    <t>java.sql.Types.TIMESTAMP</t>
+  </si>
+  <si>
+    <t>timestamp with time zone</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>org.postgresql.util.PGInterval</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>java.sql.Types.BIT</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>bit varying</t>
+  </si>
+  <si>
+    <t>org.postgresql.util.Pgobject</t>
+  </si>
+  <si>
+    <t>oid</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>java.sql.SQLXML</t>
+  </si>
+  <si>
+    <t>java.sql.Types.SQLXML</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>java.sql.Array</t>
+  </si>
+  <si>
+    <t>java.sql.Types.ARRAY</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>java.util.UUID</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>org.postgresql.geometric.Pgpoint</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>org.postgresql.geometric.Pgbox</t>
+  </si>
+  <si>
+    <t>lseg</t>
+  </si>
+  <si>
+    <t>org.postgresql.geometric.Pglseg</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>org.postgresql.geometric.Pgpath</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>org.postgresql.geometric.PGpolygon</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>org.postgresql.geometric.PGcircle</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>org.postgresql.util.PGobject</t>
+  </si>
+  <si>
+    <t>Network address type (inet,cidr,macaddr)</t>
+  </si>
+  <si>
+    <t>Types related to text searches (svector, tsquery)</t>
+  </si>
+  <si>
+    <t>Enumerated type</t>
+  </si>
+  <si>
+    <t>Composite type</t>
+  </si>
+  <si>
+    <t>Range type</t>
+  </si>
+  <si>
+    <t>pksDatatypesNEW</t>
+  </si>
+  <si>
+    <t>WITH t1 AS (</t>
+  </si>
+  <si>
+    <t>SELECT tab.table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       string_agg(kcu.column_name, ',' order by kcu.column_name desc) AS key_columns,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       string_agg(col.data_type, ',' order by col.column_name desc) AS key_data_types</t>
+  </si>
+  <si>
+    <t>FROM information_schema.tables tab</t>
+  </si>
+  <si>
+    <t>LEFT JOIN information_schema.table_constraints tco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ON tco.table_schema = tab.table_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          AND tco.table_name = tab.table_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          AND tco.constraint_type = 'PRIMARY KEY'</t>
+  </si>
+  <si>
+    <t>LEFT JOIN information_schema.key_column_usage kcu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ON kcu.constraint_name = tco.constraint_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          AND kcu.constraint_schema = tco.constraint_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          AND kcu.constraint_name = tco.constraint_name</t>
+  </si>
+  <si>
+    <t>LEFT JOIN information_schema.columns col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ON col.column_name = kcu.column_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          AND col.table_schema = kcu.table_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          AND col.table_name = kcu.table_name</t>
+  </si>
+  <si>
+    <t>WHERE tab.table_schema NOT IN ('pg_catalog', 'information_schema')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND tab.table_type = 'BASE TABLE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND tab.table_schema = 'sll'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      AND tab.table_name = LOWER('m4sll_doc_litigios')</t>
+  </si>
+  <si>
+    <t>GROUP BY tab.table_schema,</t>
+  </si>
+  <si>
+    <t>ORDER BY tab.table_schema,</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM t1;</t>
+  </si>
+  <si>
+    <t>WITH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   t1 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT tab.table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    tab.table_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM information_schema.tables tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              WHERE tab.table_schema NOT IN ('pg_catalog', 'information_schema')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND tab.table_type = 'BASE TABLE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND tab.table_schema = 'sll'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND tab.table_name = LOWER('m4sll_doc_litigios')</t>
+  </si>
+  <si>
+    <t>), t2 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT t1.*,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    tco.constraint_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    tco.constraint_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN information_schema.table_constraints tco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ON tco.table_schema = t1.table_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND tco.table_name = t1.table_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND tco.constraint_type = 'PRIMARY KEY'</t>
+  </si>
+  <si>
+    <t>), t3 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT t2.*,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    kcu.column_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN information_schema.key_column_usage kcu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ON kcu.constraint_name = t2.constraint_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND kcu.constraint_schema = t2.constraint_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND kcu.constraint_name = t2.constraint_name</t>
+  </si>
+  <si>
+    <t>), t4 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT t3.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  , col.data_type AS sqlserver_data_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM t3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN information_schema.columns col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ON col.column_name = t3.column_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND col.table_schema = t3.table_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND col.table_name = t3.table_name</t>
+  </si>
+  <si>
+    <t>), t5 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT 'bigint'                      AS sqlserver_data_type, 'Long'          AS java_data_type union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT 'character varying'           AS sqlserver_data_type, 'String'        AS java_data_type union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT 'smallint'                    AS sqlserver_data_type, 'Short'         AS java_data_type union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT 'timestamp without time zone' AS sqlserver_data_type, 'java.sql.Time' AS java_data_type</t>
+  </si>
+  <si>
+    <t>), t6 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT t4.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   , t5.java_data_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                FROM t4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           LEFT JOIN t5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  ON t4.sqlserver_data_type = t5.sqlserver_data_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT table_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         string_agg(column_name, ',' ORDER BY column_name DESC) AS key_columns,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         string_agg(java_data_type, ',' ORDER BY column_name DESC) AS key_data_types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM t6</t>
+  </si>
+  <si>
+    <t>GROUP BY table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         table_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         constraint_name</t>
+  </si>
+  <si>
+    <t>ORDER BY table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         table_name</t>
+  </si>
+  <si>
+    <t>VIEJOS:</t>
+  </si>
+  <si>
+    <t>String,String,Long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +687,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -281,7 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -291,6 +768,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -607,232 +1087,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C95634-6815-48B1-861A-4160D7F81E45}">
-  <dimension ref="C6:J20"/>
+  <dimension ref="C3:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="111.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="112" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>C10</f>
+        <v>secuencia?</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>D10</f>
+        <v>index</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f>E10</f>
+        <v>Template tabla</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <f>ISNUMBER(SEARCH("secuencia",LOWER(D5)))</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <f>F5</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>+VLOOKUP(G5,D11:E23,2,FALSE)</f>
+        <v>m4sll_pedido_det</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>LOWER("python generarentidades.py "&amp;C5&amp;" "&amp;SUBSTITUTE(D5," ","")&amp;" "&amp;E5&amp;" "&amp;H5)</f>
+        <v>python generarentidades.py m4sll_doc_litigios lit_id_litigio,id_organization,dol_secuencia string,string,long m4sll_pedido_det</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <f>C11</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="b">
+        <f>ISNUMBER(SEARCH("secuencia",#REF!))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <f t="shared" ref="D12" si="0">C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="str">
-        <f>E17</f>
-        <v>CantPks</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f>F17</f>
-        <v>secuencia?</v>
-      </c>
-      <c r="G7" s="3" t="str">
-        <f>G17</f>
-        <v>index</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f>H17</f>
-        <v>Template tabla</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f>I17</f>
-        <v>Pks Template</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1">
-        <f>LEN(D8)-LEN(SUBSTITUTE(D8,",",""))+1</f>
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <f>ISNUMBER(SEARCH("secuencia",LOWER(D8)))</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>E8&amp;F8</f>
-        <v>3TRUE</v>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f>+VLOOKUP(G8,G18:I31,2,FALSE)</f>
-        <v>m4sll_lit_seguimie</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f>+VLOOKUP(G8,G18:I131,3,FALSE)</f>
-        <v>lit_id_litigio,id_organization,lis_secuencia</v>
-      </c>
-      <c r="J8" s="6" t="str">
-        <f>LOWER("python generarentidades.py "&amp;C8&amp;" "&amp;SUBSTITUTE(D8," ","")&amp;" "&amp;H8&amp;" "&amp;I8)</f>
-        <v>python generarentidades.py m4sll_doc_litigios lit_id_litigio,id_organization,dol_secuencia m4sll_lit_seguimie lit_id_litigio,id_organization,lis_secuencia</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="1" t="str">
-        <f>LOWER(SUBSTITUTE(IF(NOT(ISBLANK(E14)),E14&amp;",","")&amp;IF(NOT(ISBLANK(F14)),F14&amp;",","")&amp;IF(NOT(ISBLANK(G14)),G14&amp;",","")&amp;IF(NOT(ISBLANK(H14)),H14&amp;",","")," ",""))</f>
-        <v>lit_id_litigio,id_organization,</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f>LEFT(I14,LEN(I14)-1)</f>
-        <v>lit_id_litigio,id_organization</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="1">
-        <f>LEN(I18)-LEN(SUBSTITUTE(I18,",",""))+1</f>
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="b">
-        <f>ISNUMBER(SEARCH("secuencia",I18))</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f>E18&amp;F18</f>
-        <v>4TRUE</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="1">
-        <f>LEN(I19)-LEN(SUBSTITUTE(I19,",",""))+1</f>
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="b">
-        <f>ISNUMBER(SEARCH("secuencia",I19))</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f>E19&amp;F19</f>
-        <v>3TRUE</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="1">
-        <f>LEN(I20)-LEN(SUBSTITUTE(I20,",",""))+1</f>
-        <v>2</v>
-      </c>
-      <c r="F20" s="1" t="b">
-        <f>ISNUMBER(SEARCH("secuencia",I20))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f>E20&amp;F20</f>
-        <v>2FALSE</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E16:I16"/>
+  <mergeCells count="1">
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -841,150 +1224,1092 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED72078-21C9-4990-ABD2-8863B6C157AD}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="143.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>53</v>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524AA7B6-F59B-4B18-BD97-ED8D0981F2EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAD7C82-31D3-4F46-B563-BE37F379A951}">
+  <dimension ref="F5:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="F1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" t="s">
+        <v>118</v>
+      </c>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" t="s">
+        <v>120</v>
+      </c>
+      <c r="H46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD4D08F-E516-4BAB-B58D-209BB9778B47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C200D090-3733-4528-9AAD-22122EBB169A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{6B583061-8CCE-48C2-A899-3291AA3A1814}"/>
   </bookViews>
   <sheets>
     <sheet name="generador" sheetId="1" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Datatypes" sheetId="3" r:id="rId4"/>
+    <sheet name="Datatypes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="208">
-  <si>
-    <t>m4sll_pedido_det</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="213">
   <si>
     <t>secuencia?</t>
   </si>
@@ -39,6 +35,9 @@
     <t>m4sll_doc_litigios</t>
   </si>
   <si>
+    <t>m4sll_lit_seguimie</t>
+  </si>
+  <si>
     <t>nombretablaNEW</t>
   </si>
   <si>
@@ -48,24 +47,21 @@
     <t>Comando</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>m4sll_litigios</t>
   </si>
   <si>
+    <t>lit_id_litigio,id_organization</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
     <t>Generar comando</t>
   </si>
   <si>
     <t>lit_id_litigio, id_organization,dol_secuencia</t>
   </si>
   <si>
-    <t>Templates asociados a cierta cantidad de columnas y si cuenta con una secuencia entre las pks</t>
-  </si>
-  <si>
-    <t>Template tabla</t>
-  </si>
-  <si>
     <t>select tab.table_schema,</t>
   </si>
   <si>
@@ -652,13 +648,31 @@
   </si>
   <si>
     <t>String,String,Long</t>
+  </si>
+  <si>
+    <t>sec1</t>
+  </si>
+  <si>
+    <t>sec0</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>https://software.fujitsu.com/jp/manual/manualfiles/m150000/j2ul1738/08enz200/j1738-00-02-04-01.html</t>
+  </si>
+  <si>
+    <t>String,String</t>
+  </si>
+  <si>
+    <t>id_organization,lit_id_litigio,lis_secuencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +714,14 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -753,12 +775,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -771,9 +794,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1087,135 +1112,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C95634-6815-48B1-861A-4160D7F81E45}">
-  <dimension ref="C3:J13"/>
+  <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="111.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="112" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="100" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="B3" s="5"/>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f>C10</f>
+      <c r="F4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>A4</f>
         <v>secuencia?</v>
       </c>
-      <c r="G4" s="3" t="str">
-        <f>D10</f>
-        <v>index</v>
-      </c>
       <c r="H4" s="3" t="str">
-        <f>E10</f>
-        <v>Template tabla</v>
+        <f>B4</f>
+        <v>Template</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
-        <v>2</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <f>ISNUMBER(SEARCH("secuencia",LOWER(D5)))</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <f t="shared" ref="G5:G7" si="0">IF(COUNTBLANK(F5),"",ISNUMBER(SEARCH("secuencia",LOWER(E5))))</f>
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="b">
-        <f>F5</f>
-        <v>1</v>
-      </c>
       <c r="H5" s="1" t="str">
-        <f>+VLOOKUP(G5,D11:E23,2,FALSE)</f>
-        <v>m4sll_pedido_det</v>
+        <f t="shared" ref="H5:H7" si="1">IF(COUNTBLANK(G5)&gt;0,"",VLOOKUP(G5,A:B,2,FALSE))</f>
+        <v>sec1</v>
       </c>
       <c r="I5" s="6" t="str">
-        <f>LOWER("python generarentidades.py "&amp;C5&amp;" "&amp;SUBSTITUTE(D5," ","")&amp;" "&amp;E5&amp;" "&amp;H5)</f>
-        <v>python generarentidades.py m4sll_doc_litigios lit_id_litigio,id_organization,dol_secuencia string,string,long m4sll_pedido_det</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <f>C11</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="b">
+        <f t="shared" ref="I5:I7" si="2">IF(COUNTBLANK(H5)&gt;0,"","python generarentidades.py "&amp;D5&amp;" "&amp;SUBSTITUTE(LOWER(E5)," ","")&amp;" "&amp;F5&amp;" "&amp;H5)</f>
+        <v>python generarentidades.py m4sll_doc_litigios lit_id_litigio,id_organization,dol_secuencia String,String,Long sec1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="b">
         <f>ISNUMBER(SEARCH("secuencia",#REF!))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="b">
-        <f t="shared" ref="D12" si="0">C12</f>
+      <c r="B6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sec0</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>python generarentidades.py m4sll_litigios lit_id_litigio,id_organization String,String sec0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sec1</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>python generarentidades.py m4sll_lit_seguimie id_organization,lit_id_litigio,lis_secuencia String,String,Long sec1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1" t="str">
+        <f>IF(COUNTBLANK(F8),"",ISNUMBER(SEARCH("secuencia",LOWER(E8))))</f>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>IF(COUNTBLANK(G8)&gt;0,"",VLOOKUP(G8,A:B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f>IF(COUNTBLANK(H8)&gt;0,"","python generarentidades.py "&amp;D8&amp;" "&amp;SUBSTITUTE(LOWER(E8)," ","")&amp;" "&amp;F8&amp;" "&amp;H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1" t="str">
+        <f t="shared" ref="G9:G13" si="3">IF(COUNTBLANK(F9),"",ISNUMBER(SEARCH("secuencia",LOWER(E9))))</f>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" ref="H9:H13" si="4">IF(COUNTBLANK(G9)&gt;0,"",VLOOKUP(G9,A:B,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f t="shared" ref="I9:I13" si="5">IF(COUNTBLANK(H9)&gt;0,"","python generarentidades.py "&amp;D9&amp;" "&amp;SUBSTITUTE(LOWER(E9)," ","")&amp;" "&amp;F9&amp;" "&amp;H9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1226,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED72078-21C9-4990-ABD2-8863B6C157AD}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1238,567 +1381,567 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1807,25 +1950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524AA7B6-F59B-4B18-BD97-ED8D0981F2EF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAD7C82-31D3-4F46-B563-BE37F379A951}">
+  <dimension ref="F2:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAD7C82-31D3-4F46-B563-BE37F379A951}">
-  <dimension ref="F5:H47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="F1:H1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1835,481 +1964,489 @@
     <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F2" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="5" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
         <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>59</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
         <v>61</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>62</v>
-      </c>
-      <c r="H14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
         <v>56</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
         <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
         <v>62</v>
-      </c>
-      <c r="H17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
         <v>67</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>68</v>
-      </c>
-      <c r="H18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
         <v>70</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>71</v>
-      </c>
-      <c r="H19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s">
         <v>73</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s">
         <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
         <v>78</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
         <v>80</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>81</v>
-      </c>
-      <c r="H23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
         <v>83</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>84</v>
-      </c>
-      <c r="H24" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" t="s">
         <v>84</v>
-      </c>
-      <c r="H25" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
         <v>87</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>88</v>
-      </c>
-      <c r="H26" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
         <v>88</v>
-      </c>
-      <c r="H27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
         <v>91</v>
       </c>
-      <c r="G28" t="s">
-        <v>92</v>
-      </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" t="s">
         <v>93</v>
-      </c>
-      <c r="G29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s">
         <v>93</v>
-      </c>
-      <c r="H30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
         <v>96</v>
       </c>
-      <c r="G31" t="s">
-        <v>97</v>
-      </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
         <v>62</v>
-      </c>
-      <c r="H32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" t="s">
         <v>99</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>100</v>
-      </c>
-      <c r="H33" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
         <v>102</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>103</v>
-      </c>
-      <c r="H34" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" t="s">
         <v>105</v>
       </c>
-      <c r="G35" t="s">
-        <v>106</v>
-      </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
         <v>107</v>
       </c>
-      <c r="G36" t="s">
-        <v>108</v>
-      </c>
       <c r="H36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" t="s">
         <v>109</v>
       </c>
-      <c r="G37" t="s">
-        <v>110</v>
-      </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" t="s">
         <v>111</v>
       </c>
-      <c r="G38" t="s">
-        <v>112</v>
-      </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" t="s">
         <v>113</v>
       </c>
-      <c r="G39" t="s">
-        <v>114</v>
-      </c>
       <c r="H39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" t="s">
         <v>115</v>
       </c>
-      <c r="G40" t="s">
-        <v>116</v>
-      </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
         <v>117</v>
       </c>
-      <c r="G41" t="s">
-        <v>118</v>
-      </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" t="s">
         <v>119</v>
       </c>
-      <c r="G42" t="s">
-        <v>120</v>
-      </c>
       <c r="H42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{2F68E063-DC62-47C4-A63D-F6A57ABB85BE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C200D090-3733-4528-9AAD-22122EBB169A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBFD54B-0DBA-4FB8-9F96-8ED8DA70F153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{6B583061-8CCE-48C2-A899-3291AA3A1814}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="215">
   <si>
     <t>secuencia?</t>
   </si>
@@ -666,6 +666,12 @@
   </si>
   <si>
     <t>id_organization,lit_id_litigio,lis_secuencia</t>
+  </si>
+  <si>
+    <t>m4sll_tp_entidades</t>
+  </si>
+  <si>
+    <t>tpe_id_tp_entidad,id_organization</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1121,7 @@
   <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,20 +1257,26 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1" t="str">
+      <c r="D8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="1" t="b">
         <f>IF(COUNTBLANK(F8),"",ISNUMBER(SEARCH("secuencia",LOWER(E8))))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>IF(COUNTBLANK(G8)&gt;0,"",VLOOKUP(G8,A:B,2,FALSE))</f>
-        <v/>
+        <v>sec0</v>
       </c>
       <c r="I8" s="6" t="str">
         <f>IF(COUNTBLANK(H8)&gt;0,"","python generarentidades.py "&amp;D8&amp;" "&amp;SUBSTITUTE(LOWER(E8)," ","")&amp;" "&amp;F8&amp;" "&amp;H8)</f>
-        <v/>
+        <v>python generarentidades.py m4sll_tp_entidades tpe_id_tp_entidad,id_organization String,String sec0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">

--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBFD54B-0DBA-4FB8-9F96-8ED8DA70F153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563CF8B-FCEA-4404-BAF7-3C9FD6D9AD31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{6B583061-8CCE-48C2-A899-3291AA3A1814}"/>
   </bookViews>
@@ -50,18 +50,9 @@
     <t>m4sll_litigios</t>
   </si>
   <si>
-    <t>lit_id_litigio,id_organization</t>
-  </si>
-  <si>
-    <t>Templates</t>
-  </si>
-  <si>
     <t>Generar comando</t>
   </si>
   <si>
-    <t>lit_id_litigio, id_organization,dol_secuencia</t>
-  </si>
-  <si>
     <t>select tab.table_schema,</t>
   </si>
   <si>
@@ -672,6 +663,15 @@
   </si>
   <si>
     <t>tpe_id_tp_entidad,id_organization</t>
+  </si>
+  <si>
+    <t>id_organization,lit_id_litigio,dol_secuencia</t>
+  </si>
+  <si>
+    <t>id_organization,lit_id_litigio</t>
+  </si>
+  <si>
+    <t>Lista de Templates</t>
   </si>
 </sst>
 </file>
@@ -1121,15 +1121,16 @@
   <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
@@ -1139,11 +1140,11 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1151,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -1160,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>A4</f>
@@ -1178,17 +1179,17 @@
       <c r="A5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>207</v>
+      <c r="B5" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G5" s="1" t="b">
         <f t="shared" ref="G5:G7" si="0">IF(COUNTBLANK(F5),"",ISNUMBER(SEARCH("secuencia",LOWER(E5))))</f>
@@ -1200,7 +1201,7 @@
       </c>
       <c r="I5" s="6" t="str">
         <f t="shared" ref="I5:I7" si="2">IF(COUNTBLANK(H5)&gt;0,"","python generarentidades.py "&amp;D5&amp;" "&amp;SUBSTITUTE(LOWER(E5)," ","")&amp;" "&amp;F5&amp;" "&amp;H5)</f>
-        <v>python generarentidades.py m4sll_doc_litigios lit_id_litigio,id_organization,dol_secuencia String,String,Long sec1</v>
+        <v>python generarentidades.py m4sll_doc_litigios id_organization,lit_id_litigio,dol_secuencia String,String,Long sec1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1208,17 +1209,17 @@
         <f>ISNUMBER(SEARCH("secuencia",#REF!))</f>
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>208</v>
+      <c r="B6" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G6" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1230,7 +1231,7 @@
       </c>
       <c r="I6" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>python generarentidades.py m4sll_litigios lit_id_litigio,id_organization String,String sec0</v>
+        <v>python generarentidades.py m4sll_litigios id_organization,lit_id_litigio String,String sec0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1238,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G7" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1258,13 +1259,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G8" s="1" t="b">
         <f>IF(COUNTBLANK(F8),"",ISNUMBER(SEARCH("secuencia",LOWER(E8))))</f>
@@ -1393,567 +1394,567 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1978,480 +1979,480 @@
   <sheetData>
     <row r="2" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F2" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" t="s">
         <v>73</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563CF8B-FCEA-4404-BAF7-3C9FD6D9AD31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ED4823-B84B-427B-83EB-FC7EB36CE4F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{6B583061-8CCE-48C2-A899-3291AA3A1814}"/>
   </bookViews>
@@ -50,6 +50,9 @@
     <t>m4sll_litigios</t>
   </si>
   <si>
+    <t>Templates</t>
+  </si>
+  <si>
     <t>Generar comando</t>
   </si>
   <si>
@@ -669,9 +672,6 @@
   </si>
   <si>
     <t>id_organization,lit_id_litigio</t>
-  </si>
-  <si>
-    <t>Lista de Templates</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1121,7 @@
   <dimension ref="A3:J17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1140,11 +1140,11 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G4" s="2" t="str">
         <f>A4</f>
@@ -1180,16 +1180,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G5" s="1" t="b">
         <f t="shared" ref="G5:G7" si="0">IF(COUNTBLANK(F5),"",ISNUMBER(SEARCH("secuencia",LOWER(E5))))</f>
@@ -1210,16 +1210,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G6" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G7" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1259,13 +1259,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G8" s="1" t="b">
         <f>IF(COUNTBLANK(F8),"",ISNUMBER(SEARCH("secuencia",LOWER(E8))))</f>
@@ -1394,567 +1394,567 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1979,480 +1979,480 @@
   <sheetData>
     <row r="2" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F2" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s">
         <v>82</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
         <v>86</v>
-      </c>
-      <c r="G27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s">
         <v>91</v>
-      </c>
-      <c r="G30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
         <v>117</v>
       </c>
-      <c r="G43" t="s">
-        <v>116</v>
-      </c>
       <c r="H43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ED4823-B84B-427B-83EB-FC7EB36CE4F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A3161-B565-410E-B2EC-A0A42BDF1E2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{6B583061-8CCE-48C2-A899-3291AA3A1814}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
   <si>
     <t>secuencia?</t>
   </si>
@@ -476,168 +476,6 @@
     <t>SELECT * FROM t1;</t>
   </si>
   <si>
-    <t>WITH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   t1 AS (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             SELECT tab.table_schema,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    tab.table_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               FROM information_schema.tables tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              WHERE tab.table_schema NOT IN ('pg_catalog', 'information_schema')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AND tab.table_type = 'BASE TABLE'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AND tab.table_schema = 'sll'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AND tab.table_name = LOWER('m4sll_doc_litigios')</t>
-  </si>
-  <si>
-    <t>), t2 AS (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             SELECT t1.*,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    tco.constraint_name,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    tco.constraint_schema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               FROM t1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          LEFT JOIN information_schema.table_constraints tco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 ON tco.table_schema = t1.table_schema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AND tco.table_name = t1.table_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AND tco.constraint_type = 'PRIMARY KEY'</t>
-  </si>
-  <si>
-    <t>), t3 AS (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             SELECT t2.*,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    kcu.column_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               FROM t2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          LEFT JOIN information_schema.key_column_usage kcu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 ON kcu.constraint_name = t2.constraint_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AND kcu.constraint_schema = t2.constraint_schema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AND kcu.constraint_name = t2.constraint_name</t>
-  </si>
-  <si>
-    <t>), t4 AS (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             SELECT t3.*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  , col.data_type AS sqlserver_data_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               FROM t3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          LEFT JOIN information_schema.columns col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 ON col.column_name = t3.column_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AND col.table_schema = t3.table_schema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AND col.table_name = t3.table_name</t>
-  </si>
-  <si>
-    <t>), t5 AS (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              SELECT 'bigint'                      AS sqlserver_data_type, 'Long'          AS java_data_type union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              SELECT 'character varying'           AS sqlserver_data_type, 'String'        AS java_data_type union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              SELECT 'smallint'                    AS sqlserver_data_type, 'Short'         AS java_data_type union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              SELECT 'timestamp without time zone' AS sqlserver_data_type, 'java.sql.Time' AS java_data_type</t>
-  </si>
-  <si>
-    <t>), t6 AS (</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              SELECT t4.*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   , t5.java_data_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                FROM t4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           LEFT JOIN t5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  ON t4.sqlserver_data_type = t5.sqlserver_data_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  SELECT table_name,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         string_agg(column_name, ',' ORDER BY column_name DESC) AS key_columns,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         string_agg(java_data_type, ',' ORDER BY column_name DESC) AS key_data_types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM t6</t>
-  </si>
-  <si>
-    <t>GROUP BY table_schema,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         table_name,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         constraint_name</t>
-  </si>
-  <si>
-    <t>ORDER BY table_schema,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         table_name</t>
-  </si>
-  <si>
     <t>VIEJOS:</t>
   </si>
   <si>
@@ -672,13 +510,78 @@
   </si>
   <si>
     <t>id_organization,lit_id_litigio</t>
+  </si>
+  <si>
+    <t>schemaNew</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITH
+   t1 AS (
+             SELECT tab.table_schema,
+                    tab.table_name
+               FROM information_schema.tables tab
+              WHERE tab.table_schema NOT IN ('pg_catalog', 'information_schema')
+                AND tab.table_type = 'BASE TABLE'
+                AND LOWER(tab.table_schema) = ('sll')
+                AND LOWER(tab.table_name) = LOWER('m4sll_doc_litigios')
+), t2 AS (
+             SELECT t1.*,
+                    tco.constraint_name,
+                    tco.constraint_schema
+               FROM t1
+          LEFT JOIN information_schema.table_constraints tco
+                 ON tco.table_schema = t1.table_schema
+                AND tco.table_name = t1.table_name
+                AND tco.constraint_type = 'PRIMARY KEY'
+), t3 AS (
+             SELECT t2.*,
+                    kcu.column_name
+               FROM t2
+          LEFT JOIN information_schema.key_column_usage kcu
+                 ON kcu.constraint_name = t2.constraint_name
+                AND kcu.constraint_schema = t2.constraint_schema
+                AND kcu.constraint_name = t2.constraint_name
+), t4 AS (
+             SELECT t3.*
+                  , col.data_type AS sqlserver_data_type
+               FROM t3
+          LEFT JOIN information_schema.columns col
+                 ON col.column_name = t3.column_name
+                AND col.table_schema = t3.table_schema
+                AND col.table_name = t3.table_name
+), t5 AS (
+              SELECT 'bigint'                      AS sqlserver_data_type, 'Long'          AS java_data_type union
+              SELECT 'character varying'           AS sqlserver_data_type, 'String'        AS java_data_type union
+              SELECT 'smallint'                    AS sqlserver_data_type, 'Short'         AS java_data_type union
+              SELECT 'timestamp without time zone' AS sqlserver_data_type, 'java.sql.Time' AS java_data_type
+), t6 AS (
+              SELECT t4.*
+                   , t5.java_data_type
+                FROM t4
+           LEFT JOIN t5
+                  ON t4.sqlserver_data_type = t5.sqlserver_data_type
+)
+  SELECT table_schema,
+         table_name,
+         string_agg(column_name, ',' ORDER BY column_name DESC) AS key_columns,
+         string_agg(java_data_type, ',' ORDER BY column_name DESC) AS key_data_types
+    FROM t6
+GROUP BY table_schema,
+         table_name,
+         constraint_name
+ORDER BY table_schema,
+         table_name
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +592,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -730,7 +640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,6 +650,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -781,31 +696,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1118,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C95634-6815-48B1-861A-4160D7F81E45}">
-  <dimension ref="A3:J17"/>
+  <dimension ref="A3:K17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,245 +1053,266 @@
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="100" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="100" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="H4" s="2" t="str">
         <f>A4</f>
         <v>secuencia?</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="I4" s="3" t="str">
         <f>B4</f>
         <v>Template</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <f t="shared" ref="G5:G7" si="0">IF(COUNTBLANK(F5),"",ISNUMBER(SEARCH("secuencia",LOWER(E5))))</f>
+        <v>159</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <f t="shared" ref="H5:H7" si="0">IF(COUNTBLANK(G5),"",ISNUMBER(SEARCH("secuencia",LOWER(F5))))</f>
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="str">
-        <f t="shared" ref="H5:H7" si="1">IF(COUNTBLANK(G5)&gt;0,"",VLOOKUP(G5,A:B,2,FALSE))</f>
+      <c r="I5" s="1" t="str">
+        <f t="shared" ref="I5:I7" si="1">IF(COUNTBLANK(H5)&gt;0,"",VLOOKUP(H5,A:B,2,FALSE))</f>
         <v>sec1</v>
       </c>
-      <c r="I5" s="6" t="str">
-        <f t="shared" ref="I5:I7" si="2">IF(COUNTBLANK(H5)&gt;0,"","python generarentidades.py "&amp;D5&amp;" "&amp;SUBSTITUTE(LOWER(E5)," ","")&amp;" "&amp;F5&amp;" "&amp;H5)</f>
-        <v>python generarentidades.py m4sll_doc_litigios id_organization,lit_id_litigio,dol_secuencia String,String,Long sec1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="6" t="str">
+        <f>IF(COUNTBLANK(I5)&gt;0,"","python generarentidades.py "&amp;D5&amp;" "&amp;E5&amp;" "&amp;SUBSTITUTE(LOWER(F5)," ","")&amp;" "&amp;G5&amp;" "&amp;I5)</f>
+        <v>python generarentidades.py sll m4sll_doc_litigios id_organization,lit_id_litigio,dol_secuencia String,String,Long sec1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="b">
         <f>ISNUMBER(SEARCH("secuencia",#REF!))</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="1" t="b">
+        <v>160</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="1" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>sec0</v>
       </c>
-      <c r="I6" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>python generarentidades.py m4sll_litigios id_organization,lit_id_litigio String,String sec0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="6" t="str">
+        <f t="shared" ref="J6:J13" si="2">IF(COUNTBLANK(I6)&gt;0,"","python generarentidades.py "&amp;D6&amp;" "&amp;E6&amp;" "&amp;SUBSTITUTE(LOWER(F6)," ","")&amp;" "&amp;G6&amp;" "&amp;I6)</f>
+        <v>python generarentidades.py sll m4sll_litigios id_organization,lit_id_litigio String,String sec0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="1" t="b">
+        <v>156</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="1" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="I7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>sec1</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="J7" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>python generarentidades.py m4sll_lit_seguimie id_organization,lit_id_litigio,lis_secuencia String,String,Long sec1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>python generarentidades.py sll m4sll_lit_seguimie id_organization,lit_id_litigio,lis_secuencia String,String,Long sec1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <f>IF(COUNTBLANK(F8),"",ISNUMBER(SEARCH("secuencia",LOWER(E8))))</f>
+        <v>158</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <f>IF(COUNTBLANK(G8),"",ISNUMBER(SEARCH("secuencia",LOWER(F8))))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="str">
-        <f>IF(COUNTBLANK(G8)&gt;0,"",VLOOKUP(G8,A:B,2,FALSE))</f>
+      <c r="I8" s="1" t="str">
+        <f>IF(COUNTBLANK(H8)&gt;0,"",VLOOKUP(H8,A:B,2,FALSE))</f>
         <v>sec0</v>
       </c>
-      <c r="I8" s="6" t="str">
-        <f>IF(COUNTBLANK(H8)&gt;0,"","python generarentidades.py "&amp;D8&amp;" "&amp;SUBSTITUTE(LOWER(E8)," ","")&amp;" "&amp;F8&amp;" "&amp;H8)</f>
-        <v>python generarentidades.py m4sll_tp_entidades tpe_id_tp_entidad,id_organization String,String sec0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>python generarentidades.py sll m4sll_tp_entidades tpe_id_tp_entidad,id_organization String,String sec0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="1" t="str">
-        <f t="shared" ref="G9:G13" si="3">IF(COUNTBLANK(F9),"",ISNUMBER(SEARCH("secuencia",LOWER(E9))))</f>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1" t="str">
+        <f t="shared" ref="H9:H13" si="3">IF(COUNTBLANK(G9),"",ISNUMBER(SEARCH("secuencia",LOWER(F9))))</f>
         <v/>
       </c>
-      <c r="H9" s="1" t="str">
-        <f t="shared" ref="H9:H13" si="4">IF(COUNTBLANK(G9)&gt;0,"",VLOOKUP(G9,A:B,2,FALSE))</f>
+      <c r="I9" s="1" t="str">
+        <f t="shared" ref="I9:I13" si="4">IF(COUNTBLANK(H9)&gt;0,"",VLOOKUP(H9,A:B,2,FALSE))</f>
         <v/>
       </c>
-      <c r="I9" s="6" t="str">
-        <f t="shared" ref="I9:I13" si="5">IF(COUNTBLANK(H9)&gt;0,"","python generarentidades.py "&amp;D9&amp;" "&amp;SUBSTITUTE(LOWER(E9)," ","")&amp;" "&amp;F9&amp;" "&amp;H9)</f>
+      <c r="J9" s="6" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="4"/>
+      <c r="H10" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="I10" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I10" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="J10" s="6" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="1" t="str">
+      <c r="G11" s="4"/>
+      <c r="H11" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="I11" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I11" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="J11" s="6" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="1" t="str">
+      <c r="G12" s="4"/>
+      <c r="H12" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="I12" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I12" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="J12" s="6" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="4"/>
+      <c r="H13" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="I13" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I13" s="6" t="str">
-        <f t="shared" si="5"/>
+      <c r="J13" s="6" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I17" s="9"/>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
       <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1382,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED72078-21C9-4990-ABD2-8863B6C157AD}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,284 +1337,206 @@
     <col min="2" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="12"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1958,6 +1825,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A64"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1967,7 +1837,7 @@
   <dimension ref="F2:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,7 +1849,7 @@
   <sheetData>
     <row r="2" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F2" s="10" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="6:8" x14ac:dyDescent="0.3">

--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A3161-B565-410E-B2EC-A0A42BDF1E2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA6021B-65B3-4A93-B403-0F63D62AE713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{6B583061-8CCE-48C2-A899-3291AA3A1814}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{6B583061-8CCE-48C2-A899-3291AA3A1814}"/>
   </bookViews>
   <sheets>
     <sheet name="generador" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="217">
   <si>
     <t>secuencia?</t>
   </si>
@@ -476,6 +476,159 @@
     <t>SELECT * FROM t1;</t>
   </si>
   <si>
+    <t>WITH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   t1 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT tab.table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    tab.table_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM information_schema.tables tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              WHERE tab.table_schema NOT IN ('pg_catalog', 'information_schema')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND tab.table_type = 'BASE TABLE'</t>
+  </si>
+  <si>
+    <t>), t2 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT t1.*,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    tco.constraint_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    tco.constraint_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN information_schema.table_constraints tco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ON tco.table_schema = t1.table_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND tco.table_name = t1.table_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND tco.constraint_type = 'PRIMARY KEY'</t>
+  </si>
+  <si>
+    <t>), t3 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT t2.*,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    kcu.column_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN information_schema.key_column_usage kcu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ON kcu.constraint_name = t2.constraint_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND kcu.constraint_schema = t2.constraint_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND kcu.constraint_name = t2.constraint_name</t>
+  </si>
+  <si>
+    <t>), t4 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT t3.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  , col.data_type AS sqlserver_data_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM t3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN information_schema.columns col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 ON col.column_name = t3.column_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND col.table_schema = t3.table_schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND col.table_name = t3.table_name</t>
+  </si>
+  <si>
+    <t>), t5 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT 'bigint'                      AS sqlserver_data_type, 'Long'          AS java_data_type union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT 'character varying'           AS sqlserver_data_type, 'String'        AS java_data_type union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT 'smallint'                    AS sqlserver_data_type, 'Short'         AS java_data_type union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT 'timestamp without time zone' AS sqlserver_data_type, 'java.sql.Time' AS java_data_type</t>
+  </si>
+  <si>
+    <t>), t6 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              SELECT t4.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   , t5.java_data_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                FROM t4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           LEFT JOIN t5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  ON t4.sqlserver_data_type = t5.sqlserver_data_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         string_agg(column_name, ',' ORDER BY column_name DESC) AS key_columns,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         string_agg(java_data_type, ',' ORDER BY column_name DESC) AS key_data_types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM t6</t>
+  </si>
+  <si>
+    <t>GROUP BY table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         table_name,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         constraint_name</t>
+  </si>
+  <si>
+    <t>ORDER BY table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         table_name</t>
+  </si>
+  <si>
     <t>VIEJOS:</t>
   </si>
   <si>
@@ -518,70 +671,20 @@
     <t>sll</t>
   </si>
   <si>
-    <t xml:space="preserve">WITH
-   t1 AS (
-             SELECT tab.table_schema,
-                    tab.table_name
-               FROM information_schema.tables tab
-              WHERE tab.table_schema NOT IN ('pg_catalog', 'information_schema')
-                AND tab.table_type = 'BASE TABLE'
-                AND LOWER(tab.table_schema) = ('sll')
-                AND LOWER(tab.table_name) = LOWER('m4sll_doc_litigios')
-), t2 AS (
-             SELECT t1.*,
-                    tco.constraint_name,
-                    tco.constraint_schema
-               FROM t1
-          LEFT JOIN information_schema.table_constraints tco
-                 ON tco.table_schema = t1.table_schema
-                AND tco.table_name = t1.table_name
-                AND tco.constraint_type = 'PRIMARY KEY'
-), t3 AS (
-             SELECT t2.*,
-                    kcu.column_name
-               FROM t2
-          LEFT JOIN information_schema.key_column_usage kcu
-                 ON kcu.constraint_name = t2.constraint_name
-                AND kcu.constraint_schema = t2.constraint_schema
-                AND kcu.constraint_name = t2.constraint_name
-), t4 AS (
-             SELECT t3.*
-                  , col.data_type AS sqlserver_data_type
-               FROM t3
-          LEFT JOIN information_schema.columns col
-                 ON col.column_name = t3.column_name
-                AND col.table_schema = t3.table_schema
-                AND col.table_name = t3.table_name
-), t5 AS (
-              SELECT 'bigint'                      AS sqlserver_data_type, 'Long'          AS java_data_type union
-              SELECT 'character varying'           AS sqlserver_data_type, 'String'        AS java_data_type union
-              SELECT 'smallint'                    AS sqlserver_data_type, 'Short'         AS java_data_type union
-              SELECT 'timestamp without time zone' AS sqlserver_data_type, 'java.sql.Time' AS java_data_type
-), t6 AS (
-              SELECT t4.*
-                   , t5.java_data_type
-                FROM t4
-           LEFT JOIN t5
-                  ON t4.sqlserver_data_type = t5.sqlserver_data_type
-)
-  SELECT table_schema,
-         table_name,
-         string_agg(column_name, ',' ORDER BY column_name DESC) AS key_columns,
-         string_agg(java_data_type, ',' ORDER BY column_name DESC) AS key_data_types
-    FROM t6
-GROUP BY table_schema,
-         table_name,
-         constraint_name
-ORDER BY table_schema,
-         table_name
-</t>
+    <t xml:space="preserve">  SELECT table_schema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               -- AND LOWER(tab.table_schema) = LOWER('sll')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND LOWER(tab.table_name) = LOWER('STD_SUB_GEO_DIV')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +738,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -717,12 +828,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1044,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C95634-6815-48B1-861A-4160D7F81E45}">
   <dimension ref="A3:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -1108,19 +1221,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="H5" s="1" t="b">
         <f t="shared" ref="H5:H7" si="0">IF(COUNTBLANK(G5),"",ISNUMBER(SEARCH("secuencia",LOWER(F5))))</f>
@@ -1141,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="H6" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1170,16 +1283,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7" s="4" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="H7" s="1" t="b">
         <f t="shared" si="0"/>
@@ -1196,16 +1309,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="H8" s="1" t="b">
         <f>IF(COUNTBLANK(G8),"",ISNUMBER(SEARCH("secuencia",LOWER(F8))))</f>
@@ -1325,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED72078-21C9-4990-ABD2-8863B6C157AD}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,263 +1451,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="12" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="12" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+      <c r="A35" s="12" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+      <c r="A36" s="12" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+      <c r="A37" s="12" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+      <c r="A38" s="12" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+      <c r="A39" s="12" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="12" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+      <c r="A41" s="12" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+      <c r="A42" s="12" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+      <c r="A43" s="12" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="A44" s="12" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+      <c r="A45" s="12" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
+      <c r="A46" s="12" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
+      <c r="A47" s="12" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
+      <c r="A48" s="12" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
+      <c r="A49" s="12" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
+      <c r="A50" s="12" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
+      <c r="A52" s="12" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
+      <c r="A53" s="12" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
+      <c r="A55" s="12" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
+      <c r="A57" s="12"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
+      <c r="A58" s="12"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
+      <c r="A59" s="12"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
+      <c r="A60" s="12"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
+      <c r="A61" s="12"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
+      <c r="A62" s="12"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
+      <c r="A63" s="12"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>20</v>
       </c>
@@ -1826,7 +2067,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A64"/>
+    <mergeCell ref="A66:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1849,7 +2090,7 @@
   <sheetData>
     <row r="2" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F2" s="10" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="6:8" x14ac:dyDescent="0.3">

--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE067314-68B5-496C-A62F-44A8F3E1BA90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA26A9A-3384-47DE-A74F-4BFF353CD302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generador" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="608">
   <si>
     <t>Templates</t>
   </si>
@@ -1633,9 +1633,6 @@
     <t xml:space="preserve">                 || ' FROM (SELECT CASE WHEN '</t>
   </si>
   <si>
-    <t xml:space="preserve">                 ||' = '</t>
-  </si>
-  <si>
     <t xml:space="preserve">                 ||  CASE WHEN col.data_type = 'character varying' THEN '''1''' ELSE '1' END</t>
   </si>
   <si>
@@ -1792,15 +1789,9 @@
     <t>ccd_id_secuencia|Long</t>
   </si>
   <si>
-    <t>traerla de DH</t>
-  </si>
-  <si>
     <t>tpe_id_pedido|String,lit_id_litigio|String</t>
   </si>
   <si>
-    <t>id_organization|String,mab_secuencia|Long,mab_chk_int|String</t>
-  </si>
-  <si>
     <t>sll.m4sll_litigios2</t>
   </si>
   <si>
@@ -1828,18 +1819,6 @@
     <t>Schema</t>
   </si>
   <si>
-    <t>m4sll_abogados</t>
-  </si>
-  <si>
-    <t>autor_reu</t>
-  </si>
-  <si>
-    <t>abogado</t>
-  </si>
-  <si>
-    <t>tp_doc_lit</t>
-  </si>
-  <si>
     <t>maestros</t>
   </si>
   <si>
@@ -1849,24 +1828,12 @@
     <t>m4sll_tipo_pedido</t>
   </si>
   <si>
-    <t>tp_pedido</t>
-  </si>
-  <si>
     <t>m4sll_provisiones</t>
   </si>
   <si>
     <t>__m4sll_doc_litigios_un~</t>
   </si>
   <si>
-    <t>tp_fase</t>
-  </si>
-  <si>
-    <t>negocio</t>
-  </si>
-  <si>
-    <t>pedido</t>
-  </si>
-  <si>
     <t>litigio</t>
   </si>
   <si>
@@ -1880,13 +1847,22 @@
   </si>
   <si>
     <t>std_id_geo_div|String</t>
+  </si>
+  <si>
+    <t>id_organization|String,mab_chk_int|String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 || ' = '</t>
+  </si>
+  <si>
+    <t>sll_vw_autor_reu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1951,13 +1927,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2148,7 +2117,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2182,9 +2151,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2578,9 +2546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U246"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T29" sqref="T29"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2633,7 +2601,7 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>527</v>
@@ -2647,7 +2615,7 @@
       <c r="J3" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>144</v>
       </c>
       <c r="L3" s="14" t="s">
@@ -2680,10 +2648,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="23"/>
       <c r="D4" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G4,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
@@ -2746,7 +2714,7 @@
         <f>IF(COUNTBLANK(S4)&gt;0,"",L4&amp;" "&amp;M4&amp;" "&amp;N4&amp;" "&amp;O4&amp;" "&amp;P4&amp;" "&amp;Q4&amp;" "&amp;S4)</f>
         <v>start /wait python generarentidades.py sll m4sll_pedidos "id_organization|String,lit_id_litigio|String,tpe_id_pedido|String" "" "id_organization|String,lit_id_litigio|String" sec0</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -2819,7 +2787,7 @@
         <f t="shared" ref="T5:T68" si="8">IF(COUNTBLANK(S5)&gt;0,"",L5&amp;" "&amp;M5&amp;" "&amp;N5&amp;" "&amp;O5&amp;" "&amp;P5&amp;" "&amp;Q5&amp;" "&amp;S5)</f>
         <v>start /wait python generarentidades.py sll m4sll_negocios "id_organization|String" "neg_id_negocio|String" "" sec1</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -2853,10 +2821,10 @@
         <v>520</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="L6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -2880,7 +2848,7 @@
       </c>
       <c r="Q6" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>"id_organization|String,mab_secuencia|Long,mab_chk_int|String"</v>
+        <v>"id_organization|String,mab_chk_int|String"</v>
       </c>
       <c r="R6" s="17" t="b">
         <f t="shared" si="6"/>
@@ -2892,9 +2860,9 @@
       </c>
       <c r="T6" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>start /wait python generarentidades.py sll m4sll_mt_abogados "id_organization|String" "mab_secuencia|Long" "id_organization|String,mab_secuencia|Long,mab_chk_int|String" sec1</v>
-      </c>
-      <c r="U6" s="31" t="s">
+        <v>start /wait python generarentidades.py sll m4sll_mt_abogados "id_organization|String" "mab_secuencia|Long" "id_organization|String,mab_chk_int|String" sec1</v>
+      </c>
+      <c r="U6" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -2928,7 +2896,7 @@
         <v>520</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="17" t="str">
@@ -2967,7 +2935,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_estudio_jur "id_organization|String" "eju_id_est_juridico|Long" "" sec1</v>
       </c>
-      <c r="U7" s="31" t="s">
+      <c r="U7" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -2994,7 +2962,7 @@
         <v>520</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="17" t="str">
@@ -3033,7 +3001,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_pedido "id_organization|String" "tpe_id_pedido|String" "" sec1</v>
       </c>
-      <c r="U8" s="31" t="s">
+      <c r="U8" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3060,7 +3028,7 @@
         <v>520</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="17" t="str">
@@ -3099,7 +3067,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_fases "id_organization|String" "tfa_id_tp_fase|String" "" sec1</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3126,7 +3094,7 @@
         <v>520</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="17" t="str">
@@ -3165,7 +3133,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_doc_litig "id_organization|String" "tdl_id_tp_doc_litigio|String" "" sec1</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="U10" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3192,7 +3160,7 @@
         <v>520</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="17" t="str">
@@ -3231,7 +3199,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_mto_cod_alt "id_organization|String" "mca_id_codigo_alterno|String" "" sec1</v>
       </c>
-      <c r="U11" s="31" t="s">
+      <c r="U11" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3258,7 +3226,7 @@
         <v>520</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="17" t="str">
@@ -3297,7 +3265,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_mto_riesgos "id_organization|String" "mri_id_riesgo|String" "" sec1</v>
       </c>
-      <c r="U12" s="31" t="s">
+      <c r="U12" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3324,7 +3292,7 @@
         <v>520</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="17" t="str">
@@ -3363,7 +3331,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_status "id_organization|String" "tst_id_tp_status|String" "" sec1</v>
       </c>
-      <c r="U13" s="31" t="s">
+      <c r="U13" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3390,7 +3358,7 @@
         <v>520</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="17" t="str">
@@ -3429,7 +3397,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_autor_reu "id_organization|String" "tar_id_tp_autor_reu|String" "" sec1</v>
       </c>
-      <c r="U14" s="31" t="s">
+      <c r="U14" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3456,7 +3424,7 @@
         <v>520</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="17" t="str">
@@ -3495,7 +3463,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tribunales "id_organization|String" "tri_id_tribunal|String" "" sec1</v>
       </c>
-      <c r="U15" s="31" t="s">
+      <c r="U15" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3522,7 +3490,7 @@
         <v>520</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="17" t="str">
@@ -3561,11 +3529,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_compromis "id_organization|String" "tco_id_tp_compromiso|String" "" sec1</v>
       </c>
-      <c r="U16" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U16" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D17" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G17,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -3625,11 +3593,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_entidades "tpe_id_tp_entidad|String,id_organization|String" "" "" sec0</v>
       </c>
-      <c r="U17" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D18" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G18,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -3652,7 +3620,7 @@
         <v>520</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="17" t="str">
@@ -3691,11 +3659,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_identific "id_organization|String" "tpi_id_tp_identificacion|String" "" sec1</v>
       </c>
-      <c r="U18" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U18" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D19" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G19,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -3718,7 +3686,7 @@
         <v>520</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="17" t="str">
@@ -3757,11 +3725,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_litigios "id_organization|String" "tpl_id_tp_litigio|String" "" sec1</v>
       </c>
-      <c r="U19" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G20,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -3784,7 +3752,7 @@
         <v>520</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="17" t="str">
@@ -3823,11 +3791,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_motivo "id_organization|String" "tmo_id_tp_motivo|String" "" sec1</v>
       </c>
-      <c r="U20" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D21" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G21,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -3850,7 +3818,7 @@
         <v>520</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="17" t="str">
@@ -3889,11 +3857,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_pagos "id_organization|String" "tpa_id_pago|String" "" sec1</v>
       </c>
-      <c r="U21" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D22" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G22,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -3916,7 +3884,7 @@
         <v>520</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="17" t="str">
@@ -3955,11 +3923,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_recurren "id_organization|String" "tre_id_recurrencia|String" "" sec1</v>
       </c>
-      <c r="U22" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D23" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G23,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -3982,7 +3950,7 @@
         <v>520</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="17" t="str">
@@ -4021,11 +3989,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_roles "id_organization|String" "tpr_id_tp_rol|Long" "" sec1</v>
       </c>
-      <c r="U23" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U23" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D24" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G24,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -4085,17 +4053,14 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_sta_det "tsd_id_tp_sta_det|String,id_organization|String" "" "" sec0</v>
       </c>
-      <c r="U24" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>586</v>
-      </c>
+      <c r="U24" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D25" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G25,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="E25">
         <f>IF(COUNTBLANK(G25)&gt;0,"",COUNTIF(G$4:G25,"?*"))</f>
@@ -4104,7 +4069,7 @@
       <c r="F25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="3" t="s">
         <v>508</v>
       </c>
       <c r="H25" s="20" t="str">
@@ -4115,7 +4080,7 @@
         <v>520</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="17" t="str">
@@ -4154,11 +4119,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_tp_val_eco "id_organization|String" "tve_id_val_eco|String" "" sec1</v>
       </c>
-      <c r="U25" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U25" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
       <c r="E26">
         <f>IF(COUNTBLANK(G26)&gt;0,"",COUNTIF(G$4:G26,"?*"))</f>
@@ -4178,10 +4143,10 @@
         <v>386</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L26" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4219,11 +4184,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_pedido_det "tpe_id_pedido|String,lit_id_litigio|String,id_organization|String" "pde_secuencia|Long" "tpe_id_pedido|String,lit_id_litigio|String" sec1</v>
       </c>
-      <c r="U26" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U26" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
       <c r="E27">
         <f>IF(COUNTBLANK(G27)&gt;0,"",COUNTIF(G$4:G27,"?*"))</f>
@@ -4243,7 +4208,7 @@
         <v>145</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>292</v>
@@ -4284,11 +4249,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_lit_seguimie "lit_id_litigio|String,id_organization|String" "lis_secuencia|Long" "lit_id_litigio|String" sec1</v>
       </c>
-      <c r="U27" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U27" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D28" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G28,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -4311,7 +4276,7 @@
         <v>520</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="17" t="str">
@@ -4350,14 +4315,14 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py public std_country "id_organization|String" "std_id_country|String" "" sec1</v>
       </c>
-      <c r="U28" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U28" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D29" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G29,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="E29">
         <f>IF(COUNTBLANK(G29)&gt;0,"",COUNTIF(G$4:G29,"?*"))</f>
@@ -4374,10 +4339,10 @@
         <v>std_id_geo_div|String,std_id_country|String,id_organization|String</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="17" t="str">
@@ -4416,11 +4381,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py public std_geo_div "std_id_country|String,id_organization|String" "std_id_geo_div|String" "" sec1</v>
       </c>
-      <c r="U29" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U29" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D30" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G30,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -4440,10 +4405,10 @@
         <v>std_id_sub_geo_div|String,std_id_geo_place|String,std_id_geo_div|String,std_id_country|String,id_organization|String</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="17" t="str">
@@ -4482,11 +4447,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py public std_geo_place "std_id_sub_geo_div|String,std_id_geo_div|String,std_id_country|String,id_organization|String" "std_id_geo_place|String" "" sec1</v>
       </c>
-      <c r="U30" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U30" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D31" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G31,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -4546,11 +4511,11 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py public std_leg_ent "std_id_leg_ent|String,id_organization|String" "" "" sec0</v>
       </c>
-      <c r="U31" s="31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U31" s="30" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D32" s="8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G32,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
@@ -4574,7 +4539,7 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L32" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4612,7 +4577,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py public std_person "std_id_person|String,id_organization|String" "" "std_id_person|String" sec0</v>
       </c>
-      <c r="U32" s="31" t="s">
+      <c r="U32" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4636,10 +4601,10 @@
         <v>std_id_sub_geo_div|String,std_id_geo_div|String,std_id_country|String,id_organization|String</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="17" t="str">
@@ -4678,7 +4643,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py public std_sub_geo_div "std_id_geo_div|String,std_id_country|String,id_organization|String" "std_id_sub_geo_div|String" "" sec1</v>
       </c>
-      <c r="U33" s="31" t="s">
+      <c r="U33" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4738,7 +4703,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U34" s="31" t="s">
+      <c r="U34" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4800,7 +4765,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_doc_litigios "lit_id_litigio|String,id_organization|String" "dol_secuencia|Long" "" sec1</v>
       </c>
-      <c r="U35" s="31" t="s">
+      <c r="U35" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4813,7 +4778,7 @@
       <c r="F36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="28" t="s">
         <v>511</v>
       </c>
       <c r="H36" s="20" t="str">
@@ -4861,7 +4826,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U36" s="31" t="s">
+      <c r="U36" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4874,7 +4839,7 @@
       <c r="F37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="28" t="s">
         <v>512</v>
       </c>
       <c r="H37" s="20" t="str">
@@ -4922,7 +4887,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U37" s="31" t="s">
+      <c r="U37" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4938,7 +4903,7 @@
       <c r="F38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="28" t="s">
         <v>513</v>
       </c>
       <c r="H38" s="20" t="str">
@@ -4986,7 +4951,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U38" s="31" t="s">
+      <c r="U38" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5002,7 +4967,7 @@
       <c r="F39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>7</v>
       </c>
       <c r="H39" s="20" t="str">
@@ -5050,7 +5015,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U39" s="31" t="s">
+      <c r="U39" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5066,7 +5031,7 @@
       <c r="F40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="28" t="s">
         <v>514</v>
       </c>
       <c r="H40" s="20" t="str">
@@ -5114,7 +5079,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U40" s="31" t="s">
+      <c r="U40" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5130,7 +5095,7 @@
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="28" t="s">
         <v>515</v>
       </c>
       <c r="H41" s="20" t="str">
@@ -5178,7 +5143,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U41" s="31" t="s">
+      <c r="U41" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5194,7 +5159,7 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="28" t="s">
         <v>516</v>
       </c>
       <c r="H42" s="20" t="e">
@@ -5242,7 +5207,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U42" s="31" t="s">
+      <c r="U42" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5258,7 +5223,7 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="28" t="s">
         <v>517</v>
       </c>
       <c r="H43" s="20" t="e">
@@ -5306,7 +5271,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U43" s="31" t="s">
+      <c r="U43" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5323,7 +5288,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H44" s="20" t="str">
         <f>IF(COUNTBLANK(G44)&gt;0,"",VLOOKUP(F44&amp;"."&amp;G44,ResultadoSQL!A:B,2,FALSE))</f>
@@ -5372,7 +5337,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_cpe_cejpj_c "lit_id_litigio|String,id_organization|String" "" "lit_id_litigio|String" sec0</v>
       </c>
-      <c r="U44" s="31" t="s">
+      <c r="U44" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5385,7 +5350,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H45" s="20" t="str">
         <f>IF(COUNTBLANK(G45)&gt;0,"",VLOOKUP(F45&amp;"."&amp;G45,ResultadoSQL!A:B,2,FALSE))</f>
@@ -5395,7 +5360,7 @@
         <v>145</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>292</v>
@@ -5436,7 +5401,7 @@
         <f t="shared" si="8"/>
         <v>start /wait python generarentidades.py sll m4sll_cpe_cejpj_d "lit_id_litigio|String,id_organization|String" "ccd_id_secuencia|Long" "lit_id_litigio|String" sec1</v>
       </c>
-      <c r="U45" s="31" t="s">
+      <c r="U45" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5493,7 +5458,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U46" s="31" t="s">
+      <c r="U46" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5544,7 +5509,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U47" s="31"/>
+      <c r="U47" s="30"/>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D48" s="8"/>
@@ -5599,7 +5564,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U48" s="31" t="s">
+      <c r="U48" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5656,7 +5621,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U49" s="31" t="s">
+      <c r="U49" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5716,7 +5681,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U50" s="31" t="s">
+      <c r="U50" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5776,7 +5741,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U51" s="31" t="s">
+      <c r="U51" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5836,7 +5801,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U52" s="31" t="s">
+      <c r="U52" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5896,7 +5861,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U53" s="31" t="s">
+      <c r="U53" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5956,7 +5921,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U54" s="31" t="s">
+      <c r="U54" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6016,7 +5981,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U55" s="31" t="s">
+      <c r="U55" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6076,7 +6041,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U56" s="31" t="s">
+      <c r="U56" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6132,7 +6097,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U57" s="31" t="s">
+      <c r="U57" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6189,7 +6154,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U58" s="31" t="s">
+      <c r="U58" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6246,7 +6211,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U59" s="31" t="s">
+      <c r="U59" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6306,7 +6271,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U60" s="31" t="s">
+      <c r="U60" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6366,7 +6331,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U61" s="31" t="s">
+      <c r="U61" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6426,7 +6391,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U62" s="31" t="s">
+      <c r="U62" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6486,7 +6451,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U63" s="31" t="s">
+      <c r="U63" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6546,7 +6511,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U64" s="31" t="s">
+      <c r="U64" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6606,7 +6571,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U65" s="31" t="s">
+      <c r="U65" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6666,7 +6631,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U66" s="31" t="s">
+      <c r="U66" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6722,7 +6687,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U67" s="31" t="s">
+      <c r="U67" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6779,7 +6744,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U68" s="31" t="s">
+      <c r="U68" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6836,7 +6801,7 @@
         <f t="shared" ref="T69:T132" si="17">IF(COUNTBLANK(S69)&gt;0,"",L69&amp;" "&amp;M69&amp;" "&amp;N69&amp;" "&amp;O69&amp;" "&amp;P69&amp;" "&amp;Q69&amp;" "&amp;S69)</f>
         <v/>
       </c>
-      <c r="U69" s="31" t="s">
+      <c r="U69" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6893,7 +6858,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U70" s="31" t="s">
+      <c r="U70" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6950,7 +6915,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U71" s="31" t="s">
+      <c r="U71" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7010,7 +6975,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U72" s="31" t="s">
+      <c r="U72" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7070,7 +7035,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U73" s="31" t="s">
+      <c r="U73" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7130,7 +7095,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U74" s="31" t="s">
+      <c r="U74" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7190,7 +7155,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U75" s="31" t="s">
+      <c r="U75" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7250,7 +7215,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U76" s="31" t="s">
+      <c r="U76" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7310,7 +7275,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U77" s="31" t="s">
+      <c r="U77" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7370,7 +7335,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U78" s="31" t="s">
+      <c r="U78" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7426,7 +7391,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U79" s="31" t="s">
+      <c r="U79" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7483,7 +7448,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U80" s="31" t="s">
+      <c r="U80" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7540,7 +7505,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U81" s="31" t="s">
+      <c r="U81" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7600,7 +7565,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U82" s="31" t="s">
+      <c r="U82" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7660,7 +7625,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U83" s="31" t="s">
+      <c r="U83" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7720,7 +7685,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U84" s="31" t="s">
+      <c r="U84" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7780,7 +7745,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U85" s="31" t="s">
+      <c r="U85" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7840,7 +7805,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U86" s="31" t="s">
+      <c r="U86" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7900,7 +7865,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U87" s="31" t="s">
+      <c r="U87" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7960,7 +7925,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U88" s="31" t="s">
+      <c r="U88" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8016,7 +7981,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U89" s="31" t="s">
+      <c r="U89" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8073,7 +8038,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U90" s="31" t="s">
+      <c r="U90" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8130,7 +8095,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U91" s="31" t="s">
+      <c r="U91" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8187,7 +8152,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U92" s="31" t="s">
+      <c r="U92" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8244,7 +8209,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U93" s="31" t="s">
+      <c r="U93" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8304,7 +8269,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U94" s="31" t="s">
+      <c r="U94" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8364,7 +8329,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U95" s="31" t="s">
+      <c r="U95" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8424,7 +8389,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U96" s="31" t="s">
+      <c r="U96" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8484,7 +8449,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U97" s="31" t="s">
+      <c r="U97" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8544,7 +8509,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U98" s="31" t="s">
+      <c r="U98" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8604,7 +8569,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U99" s="31" t="s">
+      <c r="U99" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8664,7 +8629,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U100" s="31" t="s">
+      <c r="U100" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8720,7 +8685,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U101" s="31" t="s">
+      <c r="U101" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8777,7 +8742,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U102" s="31" t="s">
+      <c r="U102" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8834,7 +8799,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U103" s="31" t="s">
+      <c r="U103" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8894,7 +8859,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U104" s="31" t="s">
+      <c r="U104" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8954,7 +8919,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U105" s="31" t="s">
+      <c r="U105" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9014,7 +8979,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U106" s="31" t="s">
+      <c r="U106" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9074,7 +9039,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U107" s="31" t="s">
+      <c r="U107" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9134,7 +9099,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U108" s="31" t="s">
+      <c r="U108" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9194,7 +9159,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U109" s="31" t="s">
+      <c r="U109" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9254,7 +9219,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U110" s="31" t="s">
+      <c r="U110" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9310,7 +9275,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U111" s="31" t="s">
+      <c r="U111" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9367,7 +9332,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U112" s="31" t="s">
+      <c r="U112" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9424,7 +9389,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U113" s="31" t="s">
+      <c r="U113" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9481,7 +9446,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U114" s="31" t="s">
+      <c r="U114" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9538,7 +9503,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U115" s="31" t="s">
+      <c r="U115" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9598,7 +9563,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U116" s="31" t="s">
+      <c r="U116" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9658,7 +9623,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U117" s="31" t="s">
+      <c r="U117" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9718,7 +9683,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U118" s="31" t="s">
+      <c r="U118" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9778,7 +9743,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U119" s="31" t="s">
+      <c r="U119" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9838,7 +9803,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U120" s="31" t="s">
+      <c r="U120" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9898,7 +9863,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U121" s="31" t="s">
+      <c r="U121" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9958,7 +9923,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U122" s="31" t="s">
+      <c r="U122" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10014,7 +9979,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U123" s="31" t="s">
+      <c r="U123" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10071,7 +10036,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U124" s="31" t="s">
+      <c r="U124" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10128,7 +10093,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U125" s="31" t="s">
+      <c r="U125" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10188,7 +10153,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U126" s="31" t="s">
+      <c r="U126" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10248,7 +10213,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U127" s="31" t="s">
+      <c r="U127" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10308,7 +10273,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U128" s="31" t="s">
+      <c r="U128" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10368,7 +10333,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U129" s="31" t="s">
+      <c r="U129" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10428,7 +10393,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U130" s="31" t="s">
+      <c r="U130" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10488,7 +10453,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U131" s="31" t="s">
+      <c r="U131" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10548,7 +10513,7 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="U132" s="31" t="s">
+      <c r="U132" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10604,7 +10569,7 @@
         <f t="shared" ref="T133:T196" si="26">IF(COUNTBLANK(S133)&gt;0,"",L133&amp;" "&amp;M133&amp;" "&amp;N133&amp;" "&amp;O133&amp;" "&amp;P133&amp;" "&amp;Q133&amp;" "&amp;S133)</f>
         <v/>
       </c>
-      <c r="U133" s="31" t="s">
+      <c r="U133" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10661,7 +10626,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U134" s="31" t="s">
+      <c r="U134" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10718,7 +10683,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U135" s="31" t="s">
+      <c r="U135" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10775,7 +10740,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U136" s="31" t="s">
+      <c r="U136" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10832,7 +10797,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U137" s="31" t="s">
+      <c r="U137" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10892,7 +10857,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U138" s="31" t="s">
+      <c r="U138" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10952,7 +10917,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U139" s="31" t="s">
+      <c r="U139" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11012,7 +10977,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U140" s="31" t="s">
+      <c r="U140" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11072,7 +11037,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U141" s="31" t="s">
+      <c r="U141" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11132,7 +11097,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U142" s="31" t="s">
+      <c r="U142" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11192,7 +11157,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U143" s="31" t="s">
+      <c r="U143" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11252,7 +11217,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U144" s="31" t="s">
+      <c r="U144" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11308,7 +11273,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U145" s="31" t="s">
+      <c r="U145" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11365,7 +11330,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U146" s="31" t="s">
+      <c r="U146" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11422,7 +11387,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U147" s="31" t="s">
+      <c r="U147" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11482,7 +11447,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U148" s="31" t="s">
+      <c r="U148" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11542,7 +11507,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U149" s="31" t="s">
+      <c r="U149" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11602,7 +11567,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U150" s="31" t="s">
+      <c r="U150" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11662,7 +11627,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U151" s="31" t="s">
+      <c r="U151" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11722,7 +11687,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U152" s="31" t="s">
+      <c r="U152" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11782,7 +11747,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U153" s="31" t="s">
+      <c r="U153" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11842,7 +11807,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U154" s="31" t="s">
+      <c r="U154" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11898,7 +11863,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U155" s="31" t="s">
+      <c r="U155" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11955,7 +11920,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U156" s="31" t="s">
+      <c r="U156" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12012,7 +11977,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U157" s="31" t="s">
+      <c r="U157" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12069,7 +12034,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U158" s="31" t="s">
+      <c r="U158" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12126,7 +12091,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U159" s="31" t="s">
+      <c r="U159" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12186,7 +12151,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U160" s="31" t="s">
+      <c r="U160" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12246,7 +12211,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U161" s="31" t="s">
+      <c r="U161" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12306,7 +12271,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U162" s="31" t="s">
+      <c r="U162" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12366,7 +12331,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U163" s="31" t="s">
+      <c r="U163" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12426,7 +12391,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U164" s="31" t="s">
+      <c r="U164" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12486,7 +12451,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U165" s="31" t="s">
+      <c r="U165" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12546,7 +12511,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U166" s="31" t="s">
+      <c r="U166" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12602,7 +12567,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U167" s="31" t="s">
+      <c r="U167" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12659,7 +12624,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U168" s="31" t="s">
+      <c r="U168" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12716,7 +12681,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U169" s="31" t="s">
+      <c r="U169" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12776,7 +12741,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U170" s="31" t="s">
+      <c r="U170" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12836,7 +12801,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U171" s="31" t="s">
+      <c r="U171" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12896,7 +12861,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U172" s="31" t="s">
+      <c r="U172" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12956,7 +12921,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U173" s="31" t="s">
+      <c r="U173" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13016,7 +12981,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U174" s="31" t="s">
+      <c r="U174" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13076,7 +13041,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U175" s="31" t="s">
+      <c r="U175" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13136,7 +13101,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U176" s="31" t="s">
+      <c r="U176" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13192,7 +13157,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U177" s="31" t="s">
+      <c r="U177" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13249,7 +13214,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U178" s="31" t="s">
+      <c r="U178" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13306,7 +13271,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U179" s="31" t="s">
+      <c r="U179" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13363,7 +13328,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U180" s="31" t="s">
+      <c r="U180" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13420,7 +13385,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U181" s="31" t="s">
+      <c r="U181" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13480,7 +13445,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U182" s="31" t="s">
+      <c r="U182" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13540,7 +13505,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U183" s="31" t="s">
+      <c r="U183" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13600,7 +13565,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U184" s="31" t="s">
+      <c r="U184" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13660,7 +13625,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U185" s="31" t="s">
+      <c r="U185" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13720,7 +13685,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U186" s="31" t="s">
+      <c r="U186" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13780,7 +13745,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U187" s="31" t="s">
+      <c r="U187" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13840,7 +13805,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U188" s="31" t="s">
+      <c r="U188" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13896,7 +13861,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U189" s="31" t="s">
+      <c r="U189" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -13953,7 +13918,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U190" s="31" t="s">
+      <c r="U190" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14010,7 +13975,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U191" s="31" t="s">
+      <c r="U191" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14070,7 +14035,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U192" s="31" t="s">
+      <c r="U192" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14130,7 +14095,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U193" s="31" t="s">
+      <c r="U193" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14190,7 +14155,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U194" s="31" t="s">
+      <c r="U194" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14250,7 +14215,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U195" s="31" t="s">
+      <c r="U195" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14310,7 +14275,7 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U196" s="31" t="s">
+      <c r="U196" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14370,7 +14335,7 @@
         <f t="shared" ref="T197:T246" si="35">IF(COUNTBLANK(S197)&gt;0,"",L197&amp;" "&amp;M197&amp;" "&amp;N197&amp;" "&amp;O197&amp;" "&amp;P197&amp;" "&amp;Q197&amp;" "&amp;S197)</f>
         <v/>
       </c>
-      <c r="U197" s="31" t="s">
+      <c r="U197" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14430,7 +14395,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U198" s="31" t="s">
+      <c r="U198" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14486,7 +14451,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U199" s="31" t="s">
+      <c r="U199" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14543,7 +14508,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U200" s="31" t="s">
+      <c r="U200" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14600,7 +14565,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U201" s="31" t="s">
+      <c r="U201" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14657,7 +14622,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U202" s="31" t="s">
+      <c r="U202" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14714,7 +14679,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U203" s="31" t="s">
+      <c r="U203" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14774,7 +14739,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U204" s="31" t="s">
+      <c r="U204" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14834,7 +14799,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U205" s="31" t="s">
+      <c r="U205" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14894,7 +14859,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U206" s="31" t="s">
+      <c r="U206" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14954,7 +14919,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U207" s="31" t="s">
+      <c r="U207" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15014,7 +14979,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U208" s="31" t="s">
+      <c r="U208" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15074,7 +15039,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U209" s="31" t="s">
+      <c r="U209" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15134,7 +15099,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U210" s="31" t="s">
+      <c r="U210" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15190,7 +15155,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U211" s="31" t="s">
+      <c r="U211" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15247,7 +15212,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U212" s="31" t="s">
+      <c r="U212" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15304,7 +15269,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U213" s="31" t="s">
+      <c r="U213" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15364,7 +15329,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U214" s="31" t="s">
+      <c r="U214" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15424,7 +15389,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U215" s="31" t="s">
+      <c r="U215" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15484,7 +15449,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U216" s="31" t="s">
+      <c r="U216" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15544,7 +15509,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U217" s="31" t="s">
+      <c r="U217" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15604,7 +15569,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U218" s="31" t="s">
+      <c r="U218" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15664,7 +15629,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U219" s="31" t="s">
+      <c r="U219" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15724,7 +15689,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U220" s="31" t="s">
+      <c r="U220" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15780,7 +15745,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U221" s="31" t="s">
+      <c r="U221" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15837,7 +15802,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U222" s="31" t="s">
+      <c r="U222" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15894,7 +15859,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U223" s="31" t="s">
+      <c r="U223" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15951,7 +15916,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U224" s="31" t="s">
+      <c r="U224" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16008,7 +15973,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U225" s="31" t="s">
+      <c r="U225" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16068,7 +16033,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U226" s="31" t="s">
+      <c r="U226" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16128,7 +16093,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U227" s="31" t="s">
+      <c r="U227" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16188,7 +16153,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U228" s="31" t="s">
+      <c r="U228" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16248,7 +16213,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U229" s="31" t="s">
+      <c r="U229" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16308,7 +16273,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U230" s="31" t="s">
+      <c r="U230" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16368,7 +16333,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U231" s="31" t="s">
+      <c r="U231" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16428,7 +16393,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U232" s="31" t="s">
+      <c r="U232" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16484,7 +16449,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U233" s="31" t="s">
+      <c r="U233" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16541,7 +16506,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U234" s="31" t="s">
+      <c r="U234" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16598,7 +16563,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U235" s="31" t="s">
+      <c r="U235" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16658,7 +16623,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U236" s="31" t="s">
+      <c r="U236" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16718,7 +16683,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U237" s="31" t="s">
+      <c r="U237" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16778,7 +16743,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U238" s="31" t="s">
+      <c r="U238" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16838,7 +16803,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U239" s="31" t="s">
+      <c r="U239" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16898,7 +16863,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U240" s="31" t="s">
+      <c r="U240" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16958,7 +16923,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U241" s="31" t="s">
+      <c r="U241" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17018,7 +16983,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U242" s="31" t="s">
+      <c r="U242" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17074,7 +17039,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U243" s="31" t="s">
+      <c r="U243" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17131,7 +17096,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U244" s="31" t="s">
+      <c r="U244" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17188,7 +17153,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U245" s="31" t="s">
+      <c r="U245" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17245,7 +17210,7 @@
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="U246" s="31" t="s">
+      <c r="U246" s="30" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17262,8 +17227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A87"/>
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17310,12 +17275,12 @@
     </row>
     <row r="8" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -17440,17 +17405,17 @@
     </row>
     <row r="34" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -17460,27 +17425,27 @@
     </row>
     <row r="38" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -17555,7 +17520,7 @@
     </row>
     <row r="57" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -17580,37 +17545,37 @@
     </row>
     <row r="62" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -17620,27 +17585,27 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
@@ -17655,17 +17620,17 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
@@ -17675,12 +17640,12 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
@@ -17700,12 +17665,12 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -19050,7 +19015,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B186" t="s">
         <v>145</v>
@@ -19092,10 +19057,10 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>574</v>
+      </c>
+      <c r="B192" t="s">
         <v>575</v>
-      </c>
-      <c r="B192" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -19103,7 +19068,7 @@
         <v>172</v>
       </c>
       <c r="B193" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -19111,7 +19076,7 @@
         <v>173</v>
       </c>
       <c r="B194" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -19135,7 +19100,7 @@
         <v>178</v>
       </c>
       <c r="B197" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -20461,10 +20426,10 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="B383" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -20476,8 +20441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77182073-2D58-4EA1-9D23-0ED8915BBAB3}">
   <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20497,7 +20462,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B2" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A2,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20506,87 +20471,87 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="B3" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A3,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="B4" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A4,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>599</v>
+        <v>511</v>
       </c>
       <c r="B5" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A5,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
-      </c>
-      <c r="D5" s="28"/>
+        <v>x</v>
+      </c>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>512</v>
       </c>
       <c r="B6" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A6,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
-      </c>
-      <c r="D6" s="28"/>
+        <v>x</v>
+      </c>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="B7" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A7,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
-      </c>
-      <c r="D7" s="28"/>
+        <v>x</v>
+      </c>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="B8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A8,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="B9" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A9,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="B10" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A10,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
         <v>x</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>491</v>
       </c>
       <c r="B11" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A11,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20595,7 +20560,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>513</v>
       </c>
       <c r="B12" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A12,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20604,7 +20569,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>603</v>
+        <v>8</v>
       </c>
       <c r="B13" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A13,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20613,7 +20578,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>491</v>
+        <v>7</v>
       </c>
       <c r="B14" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A14,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20622,7 +20587,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="B15" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A15,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20631,7 +20596,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>495</v>
       </c>
       <c r="B16" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A16,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20640,7 +20605,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>496</v>
       </c>
       <c r="B17" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A17,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20649,7 +20614,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B18" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A18,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20658,7 +20623,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="B19" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A19,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20667,7 +20632,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B20" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A20,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20676,7 +20641,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B21" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A21,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20685,25 +20650,25 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>598</v>
       </c>
       <c r="B22" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A22,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>482</v>
+        <v>597</v>
       </c>
       <c r="B23" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A23,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B24" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A24,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20712,25 +20677,25 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>606</v>
+        <v>500</v>
       </c>
       <c r="B25" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A25,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>604</v>
+        <v>494</v>
       </c>
       <c r="B26" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A26,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="B27" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A27,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20739,7 +20704,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B28" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A28,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20748,7 +20713,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B29" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A29,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20757,7 +20722,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>502</v>
       </c>
       <c r="B30" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A30,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20766,7 +20731,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B31" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A31,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20775,7 +20740,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B32" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A32,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20784,7 +20749,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B33" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A33,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20793,7 +20758,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B34" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A34,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20802,7 +20767,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B35" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A35,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20811,7 +20776,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="B36" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A36,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20820,7 +20785,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B37" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A37,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20829,7 +20794,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B38" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A38,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20838,7 +20803,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B39" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A39,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20847,7 +20812,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="B40" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A40,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20856,7 +20821,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="B41" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A41,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20865,7 +20830,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B42" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A42,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20874,25 +20839,25 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="B43" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A43,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B44" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A44,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>602</v>
+        <v>519</v>
       </c>
       <c r="B45" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A45,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20901,7 +20866,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B46" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A46,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20910,34 +20875,34 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B47" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A47,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>610</v>
+        <v>483</v>
       </c>
       <c r="B48" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A48,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="B49" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A49,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="B50" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A50,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20946,7 +20911,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B51" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A51,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20955,7 +20920,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B52" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A52,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -20963,45 +20928,30 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>486</v>
-      </c>
       <c r="B53" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A53,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>487</v>
-      </c>
       <c r="B54" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A54,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>601</v>
-      </c>
       <c r="B55" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A55,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>608</v>
-      </c>
       <c r="B56" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A56,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>605</v>
-      </c>
       <c r="B57" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A57,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
         <v/>

--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\generarentidades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA26A9A-3384-47DE-A74F-4BFF353CD302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93080645-F82C-4C2E-ABDE-71A6D6A61DCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generador" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL" sheetId="2" r:id="rId2"/>
+    <sheet name="SQLTablasMigradas" sheetId="2" r:id="rId2"/>
     <sheet name="ResultadoSQL" sheetId="4" r:id="rId3"/>
     <sheet name="EnElServer" sheetId="6" r:id="rId4"/>
     <sheet name="Datatypes" sheetId="3" r:id="rId5"/>
+    <sheet name="SQLTablasAmigrar" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EnElServer!$A$2:$A$173</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="642">
   <si>
     <t>Templates</t>
   </si>
@@ -1856,13 +1857,115 @@
   </si>
   <si>
     <t>sll_vw_autor_reu</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>WITH t1 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             -------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             -- Primera selección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM all_tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              WHERE owner = 'M4GLOBAL'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                AND (   table_name LIKE 'M4SLL%'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     OR table_name IN ('STD_GEO_DIV','STD_GEO_PLACE','STD_SUB_GEO_DIV','STD_COUNTRY','STD_LEG_ENT')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   , t2 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             -- Detectar de la lista anterior los backups, repetidos, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             SELECT a.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               FROM t1 a, t1 b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              WHERE (    a.table_name LIKE '%' || b.table_name || '%'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     AND LENGTH(a.table_name)&gt;LENGTH(b.table_name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     AND (    REGEXP_LIKE(REPLACE(REPLACE( a.table_name, b.table_name, '' ), '_', '' ), '^[[:digit:]]+$') -- la diferencia entre ambos es numerica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          OR  REPLACE( a.table_name, b.table_name, '' ) LIKE '%BK%' -- la diferencia contiene BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          OR  REPLACE( a.table_name, b.table_name, '' ) LIKE '%PRUEBA%' -- la diferencia contiene PRUEBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          OR  REPLACE( a.table_name, b.table_name, '' ) LIKE '%_QA' -- termina en QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 OR a.table_name LIKE '%_BKP' -- Hay tablas backup que no tienen su original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   , t3 AS (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             -- Restar ambas listas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            SELECT t1.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              FROM t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             WHERE t1.table_name NOT IN (SELECT t2.table_name FROM t2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      SELECT table_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FROM t3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ORDER BY table_name;</t>
+  </si>
+  <si>
+    <t>-- Generar una lista de las tablas a migrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          OR  REPLACE( a.table_name, b.table_name, '' ) LIKE '%_VW_%' -- vistas</t>
+  </si>
+  <si>
+    <t>pag_secuencia|Long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1934,6 +2037,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2117,7 +2226,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2158,6 +2267,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Bad" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -2546,9 +2657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U246"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2560,7 +2671,7 @@
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.21875" customWidth="1"/>
+    <col min="8" max="8" width="57" customWidth="1"/>
     <col min="9" max="9" width="57.44140625" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="62.109375" customWidth="1"/>
@@ -4124,7 +4235,10 @@
       </c>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D26" s="8"/>
+      <c r="D26" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G26,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v>x</v>
+      </c>
       <c r="E26">
         <f>IF(COUNTBLANK(G26)&gt;0,"",COUNTIF(G$4:G26,"?*"))</f>
         <v>23</v>
@@ -4189,7 +4303,10 @@
       </c>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D27" s="8"/>
+      <c r="D27" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G27,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v>x</v>
+      </c>
       <c r="E27">
         <f>IF(COUNTBLANK(G27)&gt;0,"",COUNTIF(G$4:G27,"?*"))</f>
         <v>24</v>
@@ -4708,6 +4825,10 @@
       </c>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G35,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v>x</v>
+      </c>
       <c r="E35">
         <f>IF(COUNTBLANK(G35)&gt;0,"",COUNTIF(G$4:G35,"?*"))</f>
         <v>31</v>
@@ -4728,7 +4849,7 @@
       <c r="J35" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K35" s="3"/>
+      <c r="K35" s="26"/>
       <c r="L35" s="17" t="str">
         <f t="shared" si="0"/>
         <v>start /wait python generarentidades.py</v>
@@ -4770,7 +4891,10 @@
       </c>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D36" s="8"/>
+      <c r="D36" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G36,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v>x</v>
+      </c>
       <c r="E36">
         <f>IF(COUNTBLANK(G36)&gt;0,"",COUNTIF(G$4:G36,"?*"))</f>
         <v>32</v>
@@ -4831,7 +4955,10 @@
       </c>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D37" s="8"/>
+      <c r="D37" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G37,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v>x</v>
+      </c>
       <c r="E37">
         <f>IF(COUNTBLANK(G37)&gt;0,"",COUNTIF(G$4:G37,"?*"))</f>
         <v>33</v>
@@ -5039,45 +5166,47 @@
         <v>pag_secuencia|Long,lit_id_litigio|String,id_organization|String</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="K40" s="10"/>
       <c r="L40" s="17" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>start /wait python generarentidades.py</v>
       </c>
       <c r="M40" s="17" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>sll</v>
       </c>
       <c r="N40" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>m4sll_pagos</v>
       </c>
       <c r="O40" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>"lit_id_litigio|String,id_organization|String"</v>
       </c>
       <c r="P40" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"pag_secuencia|Long"</v>
       </c>
       <c r="Q40" s="17" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R40" s="17" t="str">
+        <v>""</v>
+      </c>
+      <c r="R40" s="17" t="b">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S40" s="17" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>sec1</v>
       </c>
       <c r="T40" s="4" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>start /wait python generarentidades.py sll m4sll_pagos "lit_id_litigio|String,id_organization|String" "pag_secuencia|Long" "" sec1</v>
       </c>
       <c r="U40" s="30" t="s">
         <v>526</v>
@@ -5342,6 +5471,10 @@
       </c>
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D45" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G45,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v>x</v>
+      </c>
       <c r="E45">
         <f>IF(COUNTBLANK(G45)&gt;0,"",COUNTIF(G$4:G45,"?*"))</f>
         <v>41</v>
@@ -5406,7 +5539,10 @@
       </c>
     </row>
     <row r="46" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G46,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E46" t="str">
         <f>IF(COUNTBLANK(G46)&gt;0,"",COUNTIF(G$4:G46,"?*"))</f>
         <v/>
@@ -5463,7 +5599,10 @@
       </c>
     </row>
     <row r="47" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D47" s="8"/>
+      <c r="D47" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G47,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="20" t="str">
@@ -5512,7 +5651,10 @@
       <c r="U47" s="30"/>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D48" s="8"/>
+      <c r="D48" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G48,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E48" t="str">
         <f>IF(COUNTBLANK(G48)&gt;0,"",COUNTIF(G$4:G48,"?*"))</f>
         <v/>
@@ -5569,7 +5711,10 @@
       </c>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D49" s="8"/>
+      <c r="D49" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G49,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E49" t="str">
         <f>IF(COUNTBLANK(G49)&gt;0,"",COUNTIF(G$4:G49,"?*"))</f>
         <v/>
@@ -6046,6 +6191,10 @@
       </c>
     </row>
     <row r="57" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D57" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G57,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E57" t="str">
         <f>IF(COUNTBLANK(G57)&gt;0,"",COUNTIF(G$4:G57,"?*"))</f>
         <v/>
@@ -6102,7 +6251,10 @@
       </c>
     </row>
     <row r="58" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D58" s="8"/>
+      <c r="D58" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G58,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E58" t="str">
         <f>IF(COUNTBLANK(G58)&gt;0,"",COUNTIF(G$4:G58,"?*"))</f>
         <v/>
@@ -6159,7 +6311,10 @@
       </c>
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D59" s="8"/>
+      <c r="D59" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G59,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E59" t="str">
         <f>IF(COUNTBLANK(G59)&gt;0,"",COUNTIF(G$4:G59,"?*"))</f>
         <v/>
@@ -6636,6 +6791,10 @@
       </c>
     </row>
     <row r="67" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D67" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G67,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E67" t="str">
         <f>IF(COUNTBLANK(G67)&gt;0,"",COUNTIF(G$4:G67,"?*"))</f>
         <v/>
@@ -6692,7 +6851,10 @@
       </c>
     </row>
     <row r="68" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D68" s="8"/>
+      <c r="D68" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G68,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E68" t="str">
         <f>IF(COUNTBLANK(G68)&gt;0,"",COUNTIF(G$4:G68,"?*"))</f>
         <v/>
@@ -6749,7 +6911,10 @@
       </c>
     </row>
     <row r="69" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D69" s="8"/>
+      <c r="D69" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G69,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E69" t="str">
         <f>IF(COUNTBLANK(G69)&gt;0,"",COUNTIF(G$4:G69,"?*"))</f>
         <v/>
@@ -6806,7 +6971,10 @@
       </c>
     </row>
     <row r="70" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D70" s="8"/>
+      <c r="D70" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G70,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E70" t="str">
         <f>IF(COUNTBLANK(G70)&gt;0,"",COUNTIF(G$4:G70,"?*"))</f>
         <v/>
@@ -6863,7 +7031,10 @@
       </c>
     </row>
     <row r="71" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D71" s="8"/>
+      <c r="D71" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G71,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E71" t="str">
         <f>IF(COUNTBLANK(G71)&gt;0,"",COUNTIF(G$4:G71,"?*"))</f>
         <v/>
@@ -7340,6 +7511,10 @@
       </c>
     </row>
     <row r="79" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D79" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G79,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E79" t="str">
         <f>IF(COUNTBLANK(G79)&gt;0,"",COUNTIF(G$4:G79,"?*"))</f>
         <v/>
@@ -7396,7 +7571,10 @@
       </c>
     </row>
     <row r="80" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D80" s="8"/>
+      <c r="D80" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G80,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E80" t="str">
         <f>IF(COUNTBLANK(G80)&gt;0,"",COUNTIF(G$4:G80,"?*"))</f>
         <v/>
@@ -7453,7 +7631,10 @@
       </c>
     </row>
     <row r="81" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D81" s="8"/>
+      <c r="D81" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G81,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E81" t="str">
         <f>IF(COUNTBLANK(G81)&gt;0,"",COUNTIF(G$4:G81,"?*"))</f>
         <v/>
@@ -7930,6 +8111,10 @@
       </c>
     </row>
     <row r="89" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D89" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G89,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E89" t="str">
         <f>IF(COUNTBLANK(G89)&gt;0,"",COUNTIF(G$4:G89,"?*"))</f>
         <v/>
@@ -7986,7 +8171,10 @@
       </c>
     </row>
     <row r="90" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D90" s="8"/>
+      <c r="D90" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G90,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E90" t="str">
         <f>IF(COUNTBLANK(G90)&gt;0,"",COUNTIF(G$4:G90,"?*"))</f>
         <v/>
@@ -8043,7 +8231,10 @@
       </c>
     </row>
     <row r="91" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D91" s="8"/>
+      <c r="D91" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G91,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E91" t="str">
         <f>IF(COUNTBLANK(G91)&gt;0,"",COUNTIF(G$4:G91,"?*"))</f>
         <v/>
@@ -8100,7 +8291,10 @@
       </c>
     </row>
     <row r="92" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D92" s="8"/>
+      <c r="D92" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G92,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E92" t="str">
         <f>IF(COUNTBLANK(G92)&gt;0,"",COUNTIF(G$4:G92,"?*"))</f>
         <v/>
@@ -8157,7 +8351,10 @@
       </c>
     </row>
     <row r="93" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D93" s="8"/>
+      <c r="D93" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G93,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E93" t="str">
         <f>IF(COUNTBLANK(G93)&gt;0,"",COUNTIF(G$4:G93,"?*"))</f>
         <v/>
@@ -8634,6 +8831,10 @@
       </c>
     </row>
     <row r="101" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D101" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G101,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E101" t="str">
         <f>IF(COUNTBLANK(G101)&gt;0,"",COUNTIF(G$4:G101,"?*"))</f>
         <v/>
@@ -8690,7 +8891,10 @@
       </c>
     </row>
     <row r="102" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D102" s="8"/>
+      <c r="D102" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G102,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E102" t="str">
         <f>IF(COUNTBLANK(G102)&gt;0,"",COUNTIF(G$4:G102,"?*"))</f>
         <v/>
@@ -8747,7 +8951,10 @@
       </c>
     </row>
     <row r="103" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D103" s="8"/>
+      <c r="D103" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G103,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E103" t="str">
         <f>IF(COUNTBLANK(G103)&gt;0,"",COUNTIF(G$4:G103,"?*"))</f>
         <v/>
@@ -9224,6 +9431,10 @@
       </c>
     </row>
     <row r="111" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D111" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G111,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E111" t="str">
         <f>IF(COUNTBLANK(G111)&gt;0,"",COUNTIF(G$4:G111,"?*"))</f>
         <v/>
@@ -9280,7 +9491,10 @@
       </c>
     </row>
     <row r="112" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D112" s="8"/>
+      <c r="D112" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G112,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E112" t="str">
         <f>IF(COUNTBLANK(G112)&gt;0,"",COUNTIF(G$4:G112,"?*"))</f>
         <v/>
@@ -9337,7 +9551,10 @@
       </c>
     </row>
     <row r="113" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D113" s="8"/>
+      <c r="D113" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G113,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E113" t="str">
         <f>IF(COUNTBLANK(G113)&gt;0,"",COUNTIF(G$4:G113,"?*"))</f>
         <v/>
@@ -9394,7 +9611,10 @@
       </c>
     </row>
     <row r="114" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D114" s="8"/>
+      <c r="D114" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G114,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E114" t="str">
         <f>IF(COUNTBLANK(G114)&gt;0,"",COUNTIF(G$4:G114,"?*"))</f>
         <v/>
@@ -9451,7 +9671,10 @@
       </c>
     </row>
     <row r="115" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D115" s="8"/>
+      <c r="D115" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G115,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E115" t="str">
         <f>IF(COUNTBLANK(G115)&gt;0,"",COUNTIF(G$4:G115,"?*"))</f>
         <v/>
@@ -9928,6 +10151,10 @@
       </c>
     </row>
     <row r="123" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D123" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G123,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E123" t="str">
         <f>IF(COUNTBLANK(G123)&gt;0,"",COUNTIF(G$4:G123,"?*"))</f>
         <v/>
@@ -9984,7 +10211,10 @@
       </c>
     </row>
     <row r="124" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D124" s="8"/>
+      <c r="D124" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G124,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E124" t="str">
         <f>IF(COUNTBLANK(G124)&gt;0,"",COUNTIF(G$4:G124,"?*"))</f>
         <v/>
@@ -10041,7 +10271,10 @@
       </c>
     </row>
     <row r="125" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D125" s="8"/>
+      <c r="D125" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G125,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E125" t="str">
         <f>IF(COUNTBLANK(G125)&gt;0,"",COUNTIF(G$4:G125,"?*"))</f>
         <v/>
@@ -10518,6 +10751,10 @@
       </c>
     </row>
     <row r="133" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D133" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G133,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E133" t="str">
         <f>IF(COUNTBLANK(G133)&gt;0,"",COUNTIF(G$4:G133,"?*"))</f>
         <v/>
@@ -10574,7 +10811,10 @@
       </c>
     </row>
     <row r="134" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D134" s="8"/>
+      <c r="D134" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G134,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E134" t="str">
         <f>IF(COUNTBLANK(G134)&gt;0,"",COUNTIF(G$4:G134,"?*"))</f>
         <v/>
@@ -10631,7 +10871,10 @@
       </c>
     </row>
     <row r="135" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D135" s="8"/>
+      <c r="D135" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G135,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E135" t="str">
         <f>IF(COUNTBLANK(G135)&gt;0,"",COUNTIF(G$4:G135,"?*"))</f>
         <v/>
@@ -10688,7 +10931,10 @@
       </c>
     </row>
     <row r="136" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D136" s="8"/>
+      <c r="D136" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G136,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E136" t="str">
         <f>IF(COUNTBLANK(G136)&gt;0,"",COUNTIF(G$4:G136,"?*"))</f>
         <v/>
@@ -10745,7 +10991,10 @@
       </c>
     </row>
     <row r="137" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D137" s="8"/>
+      <c r="D137" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G137,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E137" t="str">
         <f>IF(COUNTBLANK(G137)&gt;0,"",COUNTIF(G$4:G137,"?*"))</f>
         <v/>
@@ -11222,6 +11471,10 @@
       </c>
     </row>
     <row r="145" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D145" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G145,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E145" t="str">
         <f>IF(COUNTBLANK(G145)&gt;0,"",COUNTIF(G$4:G145,"?*"))</f>
         <v/>
@@ -11278,7 +11531,10 @@
       </c>
     </row>
     <row r="146" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D146" s="8"/>
+      <c r="D146" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G146,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E146" t="str">
         <f>IF(COUNTBLANK(G146)&gt;0,"",COUNTIF(G$4:G146,"?*"))</f>
         <v/>
@@ -11335,7 +11591,10 @@
       </c>
     </row>
     <row r="147" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D147" s="8"/>
+      <c r="D147" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G147,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E147" t="str">
         <f>IF(COUNTBLANK(G147)&gt;0,"",COUNTIF(G$4:G147,"?*"))</f>
         <v/>
@@ -11812,6 +12071,10 @@
       </c>
     </row>
     <row r="155" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D155" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G155,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E155" t="str">
         <f>IF(COUNTBLANK(G155)&gt;0,"",COUNTIF(G$4:G155,"?*"))</f>
         <v/>
@@ -11868,7 +12131,10 @@
       </c>
     </row>
     <row r="156" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D156" s="8"/>
+      <c r="D156" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G156,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E156" t="str">
         <f>IF(COUNTBLANK(G156)&gt;0,"",COUNTIF(G$4:G156,"?*"))</f>
         <v/>
@@ -11925,7 +12191,10 @@
       </c>
     </row>
     <row r="157" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D157" s="8"/>
+      <c r="D157" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G157,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E157" t="str">
         <f>IF(COUNTBLANK(G157)&gt;0,"",COUNTIF(G$4:G157,"?*"))</f>
         <v/>
@@ -11982,7 +12251,10 @@
       </c>
     </row>
     <row r="158" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D158" s="8"/>
+      <c r="D158" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G158,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E158" t="str">
         <f>IF(COUNTBLANK(G158)&gt;0,"",COUNTIF(G$4:G158,"?*"))</f>
         <v/>
@@ -12039,7 +12311,10 @@
       </c>
     </row>
     <row r="159" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D159" s="8"/>
+      <c r="D159" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G159,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E159" t="str">
         <f>IF(COUNTBLANK(G159)&gt;0,"",COUNTIF(G$4:G159,"?*"))</f>
         <v/>
@@ -12516,6 +12791,10 @@
       </c>
     </row>
     <row r="167" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D167" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G167,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E167" t="str">
         <f>IF(COUNTBLANK(G167)&gt;0,"",COUNTIF(G$4:G167,"?*"))</f>
         <v/>
@@ -12572,7 +12851,10 @@
       </c>
     </row>
     <row r="168" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D168" s="8"/>
+      <c r="D168" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G168,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E168" t="str">
         <f>IF(COUNTBLANK(G168)&gt;0,"",COUNTIF(G$4:G168,"?*"))</f>
         <v/>
@@ -12629,7 +12911,10 @@
       </c>
     </row>
     <row r="169" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D169" s="8"/>
+      <c r="D169" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G169,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E169" t="str">
         <f>IF(COUNTBLANK(G169)&gt;0,"",COUNTIF(G$4:G169,"?*"))</f>
         <v/>
@@ -13106,6 +13391,10 @@
       </c>
     </row>
     <row r="177" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D177" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G177,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E177" t="str">
         <f>IF(COUNTBLANK(G177)&gt;0,"",COUNTIF(G$4:G177,"?*"))</f>
         <v/>
@@ -13162,7 +13451,10 @@
       </c>
     </row>
     <row r="178" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D178" s="8"/>
+      <c r="D178" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G178,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E178" t="str">
         <f>IF(COUNTBLANK(G178)&gt;0,"",COUNTIF(G$4:G178,"?*"))</f>
         <v/>
@@ -13219,7 +13511,10 @@
       </c>
     </row>
     <row r="179" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D179" s="8"/>
+      <c r="D179" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G179,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E179" t="str">
         <f>IF(COUNTBLANK(G179)&gt;0,"",COUNTIF(G$4:G179,"?*"))</f>
         <v/>
@@ -13276,7 +13571,10 @@
       </c>
     </row>
     <row r="180" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D180" s="8"/>
+      <c r="D180" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G180,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E180" t="str">
         <f>IF(COUNTBLANK(G180)&gt;0,"",COUNTIF(G$4:G180,"?*"))</f>
         <v/>
@@ -13333,7 +13631,10 @@
       </c>
     </row>
     <row r="181" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D181" s="8"/>
+      <c r="D181" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G181,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E181" t="str">
         <f>IF(COUNTBLANK(G181)&gt;0,"",COUNTIF(G$4:G181,"?*"))</f>
         <v/>
@@ -13810,6 +14111,10 @@
       </c>
     </row>
     <row r="189" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D189" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G189,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E189" t="str">
         <f>IF(COUNTBLANK(G189)&gt;0,"",COUNTIF(G$4:G189,"?*"))</f>
         <v/>
@@ -13866,7 +14171,10 @@
       </c>
     </row>
     <row r="190" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D190" s="8"/>
+      <c r="D190" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G190,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E190" t="str">
         <f>IF(COUNTBLANK(G190)&gt;0,"",COUNTIF(G$4:G190,"?*"))</f>
         <v/>
@@ -13923,7 +14231,10 @@
       </c>
     </row>
     <row r="191" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D191" s="8"/>
+      <c r="D191" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G191,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E191" t="str">
         <f>IF(COUNTBLANK(G191)&gt;0,"",COUNTIF(G$4:G191,"?*"))</f>
         <v/>
@@ -14400,6 +14711,10 @@
       </c>
     </row>
     <row r="199" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D199" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G199,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E199" t="str">
         <f>IF(COUNTBLANK(G199)&gt;0,"",COUNTIF(G$4:G199,"?*"))</f>
         <v/>
@@ -14456,7 +14771,10 @@
       </c>
     </row>
     <row r="200" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D200" s="8"/>
+      <c r="D200" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G200,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E200" t="str">
         <f>IF(COUNTBLANK(G200)&gt;0,"",COUNTIF(G$4:G200,"?*"))</f>
         <v/>
@@ -14513,7 +14831,10 @@
       </c>
     </row>
     <row r="201" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D201" s="8"/>
+      <c r="D201" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G201,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E201" t="str">
         <f>IF(COUNTBLANK(G201)&gt;0,"",COUNTIF(G$4:G201,"?*"))</f>
         <v/>
@@ -14570,7 +14891,10 @@
       </c>
     </row>
     <row r="202" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D202" s="8"/>
+      <c r="D202" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G202,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E202" t="str">
         <f>IF(COUNTBLANK(G202)&gt;0,"",COUNTIF(G$4:G202,"?*"))</f>
         <v/>
@@ -14627,7 +14951,10 @@
       </c>
     </row>
     <row r="203" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D203" s="8"/>
+      <c r="D203" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G203,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E203" t="str">
         <f>IF(COUNTBLANK(G203)&gt;0,"",COUNTIF(G$4:G203,"?*"))</f>
         <v/>
@@ -15104,6 +15431,10 @@
       </c>
     </row>
     <row r="211" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D211" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G211,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E211" t="str">
         <f>IF(COUNTBLANK(G211)&gt;0,"",COUNTIF(G$4:G211,"?*"))</f>
         <v/>
@@ -15160,7 +15491,10 @@
       </c>
     </row>
     <row r="212" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D212" s="8"/>
+      <c r="D212" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G212,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E212" t="str">
         <f>IF(COUNTBLANK(G212)&gt;0,"",COUNTIF(G$4:G212,"?*"))</f>
         <v/>
@@ -15217,7 +15551,10 @@
       </c>
     </row>
     <row r="213" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D213" s="8"/>
+      <c r="D213" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G213,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E213" t="str">
         <f>IF(COUNTBLANK(G213)&gt;0,"",COUNTIF(G$4:G213,"?*"))</f>
         <v/>
@@ -15694,6 +16031,10 @@
       </c>
     </row>
     <row r="221" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D221" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G221,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E221" t="str">
         <f>IF(COUNTBLANK(G221)&gt;0,"",COUNTIF(G$4:G221,"?*"))</f>
         <v/>
@@ -15750,7 +16091,10 @@
       </c>
     </row>
     <row r="222" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D222" s="8"/>
+      <c r="D222" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G222,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E222" t="str">
         <f>IF(COUNTBLANK(G222)&gt;0,"",COUNTIF(G$4:G222,"?*"))</f>
         <v/>
@@ -15807,7 +16151,10 @@
       </c>
     </row>
     <row r="223" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D223" s="8"/>
+      <c r="D223" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G223,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E223" t="str">
         <f>IF(COUNTBLANK(G223)&gt;0,"",COUNTIF(G$4:G223,"?*"))</f>
         <v/>
@@ -15864,7 +16211,10 @@
       </c>
     </row>
     <row r="224" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D224" s="8"/>
+      <c r="D224" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G224,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E224" t="str">
         <f>IF(COUNTBLANK(G224)&gt;0,"",COUNTIF(G$4:G224,"?*"))</f>
         <v/>
@@ -15921,7 +16271,10 @@
       </c>
     </row>
     <row r="225" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D225" s="8"/>
+      <c r="D225" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G225,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E225" t="str">
         <f>IF(COUNTBLANK(G225)&gt;0,"",COUNTIF(G$4:G225,"?*"))</f>
         <v/>
@@ -16398,6 +16751,10 @@
       </c>
     </row>
     <row r="233" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D233" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G233,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E233" t="str">
         <f>IF(COUNTBLANK(G233)&gt;0,"",COUNTIF(G$4:G233,"?*"))</f>
         <v/>
@@ -16454,7 +16811,10 @@
       </c>
     </row>
     <row r="234" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D234" s="8"/>
+      <c r="D234" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G234,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E234" t="str">
         <f>IF(COUNTBLANK(G234)&gt;0,"",COUNTIF(G$4:G234,"?*"))</f>
         <v/>
@@ -16511,7 +16871,10 @@
       </c>
     </row>
     <row r="235" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D235" s="8"/>
+      <c r="D235" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G235,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E235" t="str">
         <f>IF(COUNTBLANK(G235)&gt;0,"",COUNTIF(G$4:G235,"?*"))</f>
         <v/>
@@ -16988,6 +17351,10 @@
       </c>
     </row>
     <row r="243" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="D243" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G243,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E243" t="str">
         <f>IF(COUNTBLANK(G243)&gt;0,"",COUNTIF(G$4:G243,"?*"))</f>
         <v/>
@@ -17044,7 +17411,10 @@
       </c>
     </row>
     <row r="244" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D244" s="8"/>
+      <c r="D244" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G244,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E244" t="str">
         <f>IF(COUNTBLANK(G244)&gt;0,"",COUNTIF(G$4:G244,"?*"))</f>
         <v/>
@@ -17101,7 +17471,10 @@
       </c>
     </row>
     <row r="245" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D245" s="8"/>
+      <c r="D245" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G245,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E245" t="str">
         <f>IF(COUNTBLANK(G245)&gt;0,"",COUNTIF(G$4:G245,"?*"))</f>
         <v/>
@@ -17158,7 +17531,10 @@
       </c>
     </row>
     <row r="246" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D246" s="8"/>
+      <c r="D246" s="8" t="str">
+        <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G246,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
+        <v/>
+      </c>
       <c r="E246" t="str">
         <f>IF(COUNTBLANK(G246)&gt;0,"",COUNTIF(G$4:G246,"?*"))</f>
         <v/>
@@ -17227,7 +17603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -17683,7 +18059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C7C90C-DC2C-49DB-BA75-D5F1F405505C}">
   <dimension ref="A1:B383"/>
   <sheetViews>
-    <sheetView topLeftCell="A378" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A384" sqref="A384"/>
     </sheetView>
   </sheetViews>
@@ -20441,7 +20817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77182073-2D58-4EA1-9D23-0ED8915BBAB3}">
   <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -22164,4 +22540,233 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA93F7D-9A21-43F8-BA27-E55A63CE0E72}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
+        <v>638</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6687E5A6-A79B-4CF4-BF2E-09F28D3041AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915EDD33-0E2D-461D-8813-B4243771D916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="842">
   <si>
     <t>Templates</t>
   </si>
@@ -1419,9 +1419,6 @@
     <t>std_id_country|String</t>
   </si>
   <si>
-    <t>std_id_person|String</t>
-  </si>
-  <si>
     <t>std_id_geo_place|String</t>
   </si>
   <si>
@@ -2526,9 +2523,6 @@
     <t>fas_secuencia|Long</t>
   </si>
   <si>
-    <t>id_organization|String,lit_id_litigio|String,fas_secuencia|Long</t>
-  </si>
-  <si>
     <t>aur_secuencia|Long</t>
   </si>
   <si>
@@ -2551,6 +2545,15 @@
   </si>
   <si>
     <t>Si!</t>
+  </si>
+  <si>
+    <t>m4sll_mto_seg_inte</t>
+  </si>
+  <si>
+    <t>msi_secuencia|Long</t>
+  </si>
+  <si>
+    <t>Si! En la entidad (json en las fechas)</t>
   </si>
 </sst>
 </file>
@@ -3267,7 +3270,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,25 +3329,25 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>139</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>142</v>
@@ -3371,20 +3374,20 @@
         <v>152</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="V3" s="15" t="str">
         <f>A5</f>
         <v>TemplateIdx</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="36" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3592,7 +3595,7 @@
         <v>id_organization|String</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N6" s="17" t="str">
         <f t="shared" si="2"/>
@@ -3639,7 +3642,7 @@
         <v>start /wait python generarentidades.py sll m4sll_mt_abogados "id_organization|String" "mab_secuencia|Long" "id_organization|String,mab_chk_int|String" "id_organization|String" "id_organization|String,mab_secuencia|Long" sec1</v>
       </c>
       <c r="Y6" s="35" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -4449,7 +4452,7 @@
         <v>id_organization|String,tpe_id_tp_entidad|String</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="str">
@@ -4993,7 +4996,7 @@
         <v>id_organization|String,tsd_id_tp_sta_det|String</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="str">
@@ -5072,7 +5075,7 @@
         <v>411</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5157,7 +5160,7 @@
         <v>id_organization|String</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N26" s="17" t="str">
         <f t="shared" si="2"/>
@@ -5184,7 +5187,7 @@
         <v>"tpe_id_pedido|String,lit_id_litigio|String"</v>
       </c>
       <c r="T26" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(COUNTBLANK(N26)&gt;0,"",""""&amp;L26&amp;"""")</f>
         <v>"id_organization|String"</v>
       </c>
       <c r="U26" s="17" t="str">
@@ -5385,10 +5388,10 @@
         <v>id_organization|String,std_id_country|String,std_id_geo_div|String</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5463,10 +5466,10 @@
         <v>id_organization|String,std_id_country|String,std_id_geo_div|String,std_id_sub_geo_div|String,std_id_geo_place|String</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5541,7 +5544,7 @@
         <v>id_organization|String,std_id_leg_ent|String</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="str">
@@ -5619,16 +5622,14 @@
         <v>id_organization|String,std_id_person|String</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>id_organization|String</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>463</v>
-      </c>
+      <c r="M32" s="3"/>
       <c r="N32" s="17" t="str">
         <f t="shared" si="2"/>
         <v>start /wait python generarentidades.py</v>
@@ -5651,7 +5652,7 @@
       </c>
       <c r="S32" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"std_id_person|String"</v>
+        <v>""</v>
       </c>
       <c r="T32" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5671,7 +5672,7 @@
       </c>
       <c r="X32" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>start /wait python generarentidades.py public std_person "id_organization|String,std_id_person|String" "" "std_id_person|String" "id_organization|String" "id_organization|String,std_id_person|String" sec0</v>
+        <v>start /wait python generarentidades.py public std_person "id_organization|String,std_id_person|String" "" "" "id_organization|String" "id_organization|String,std_id_person|String" sec0</v>
       </c>
       <c r="Y32" s="35" t="s">
         <v>417</v>
@@ -5697,10 +5698,10 @@
         <v>id_organization|String,std_id_country|String,std_id_geo_div|String,std_id_sub_geo_div|String</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5902,7 +5903,7 @@
         <v>start /wait python generarentidades.py sll m4sll_doc_litigios "id_organization|String,lit_id_litigio|String" "dol_secuencia|Long" "" "id_organization|String" "id_organization|String,dol_secuencia|Long,lit_id_litigio|String" sec1</v>
       </c>
       <c r="Y35" s="35" t="s">
-        <v>417</v>
+        <v>841</v>
       </c>
     </row>
     <row r="36" spans="4:25" x14ac:dyDescent="0.3">
@@ -5928,7 +5929,7 @@
         <v>151</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="L36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5980,7 +5981,7 @@
         <v>start /wait python generarentidades.py sll m4sll_autor_reu "id_organization|String,lit_id_litigio|String" "aur_secuencia|Long" "" "id_organization|String" "id_organization|String,lit_id_litigio|String,aur_secuencia|Long" sec1</v>
       </c>
       <c r="Y36" s="35" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" spans="4:25" x14ac:dyDescent="0.3">
@@ -6079,17 +6080,17 @@
         <v>id_organization|String,lit_id_litigio|String,tfa_id_tp_fase|String</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>151</v>
+        <v>597</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>id_organization|String</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>832</v>
+        <v>151</v>
       </c>
       <c r="N38" s="17" t="str">
         <f t="shared" si="2"/>
@@ -6105,7 +6106,7 @@
       </c>
       <c r="Q38" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>"id_organization|String,lit_id_litigio|String"</v>
+        <v>"id_organization|String,lit_id_litigio|String,tfa_id_tp_fase|String"</v>
       </c>
       <c r="R38" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6113,7 +6114,7 @@
       </c>
       <c r="S38" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"id_organization|String,lit_id_litigio|String,fas_secuencia|Long"</v>
+        <v>"id_organization|String,lit_id_litigio|String"</v>
       </c>
       <c r="T38" s="17" t="str">
         <f t="shared" si="8"/>
@@ -6133,7 +6134,7 @@
       </c>
       <c r="X38" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>start /wait python generarentidades.py sll m4sll_fases "id_organization|String,lit_id_litigio|String" "fas_secuencia|Long" "id_organization|String,lit_id_litigio|String,fas_secuencia|Long" "id_organization|String" "id_organization|String,lit_id_litigio|String,tfa_id_tp_fase|String" sec1</v>
+        <v>start /wait python generarentidades.py sll m4sll_fases "id_organization|String,lit_id_litigio|String,tfa_id_tp_fase|String" "fas_secuencia|Long" "id_organization|String,lit_id_litigio|String" "id_organization|String" "id_organization|String,lit_id_litigio|String,tfa_id_tp_fase|String" sec1</v>
       </c>
       <c r="Y38" s="35" t="s">
         <v>417</v>
@@ -6212,7 +6213,7 @@
         <v/>
       </c>
       <c r="Y39" s="35" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="40" spans="4:25" x14ac:dyDescent="0.3">
@@ -6238,7 +6239,7 @@
         <v>151</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6530,7 +6531,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H44" s="20" t="str">
         <f>IF(COUNTBLANK(G44)&gt;0,"",VLOOKUP(F44&amp;"."&amp;G44,ResultadoSQL!A:B,2,FALSE))</f>
@@ -6608,7 +6609,7 @@
         <v>4</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H45" s="20" t="str">
         <f>IF(COUNTBLANK(G45)&gt;0,"",VLOOKUP(F45&amp;"."&amp;G45,ResultadoSQL!A:B,2,FALSE))</f>
@@ -6622,7 +6623,7 @@
         <v>151</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L45" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6684,71 +6685,77 @@
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(G46,EnElServer!A:A,1,FALSE),""))&gt;0,"x","")</f>
         <v/>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>839</v>
+      </c>
       <c r="H46" s="20" t="str">
         <f>IF(COUNTBLANK(G46)&gt;0,"",VLOOKUP(F46&amp;"."&amp;G46,ResultadoSQL!A:B,2,FALSE))</f>
-        <v/>
+        <v>id_organization|String,id_app_role|String,msi_secuencia|Long</v>
       </c>
       <c r="I46" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>id_organization|String,id_app_role|String,msi_secuencia|Long</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="K46" s="3"/>
+        <v>325</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>840</v>
+      </c>
       <c r="L46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>id_organization|String</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>start /wait python generarentidades.py</v>
       </c>
       <c r="O46" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>sll</v>
       </c>
       <c r="P46" s="17" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>m4sll_mto_seg_inte</v>
       </c>
       <c r="Q46" s="17" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>"id_organization|String,id_app_role|String"</v>
       </c>
       <c r="R46" s="17" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>"msi_secuencia|Long"</v>
       </c>
       <c r="S46" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(COUNTBLANK(N46)&gt;0,"",""""&amp;M46&amp;"""")</f>
+        <v>""</v>
       </c>
       <c r="T46" s="17" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>"id_organization|String"</v>
       </c>
       <c r="U46" s="17" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="V46" s="17" t="str">
+        <v>"id_organization|String,id_app_role|String,msi_secuencia|Long"</v>
+      </c>
+      <c r="V46" s="17" t="b">
         <f t="shared" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W46" s="17" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>sec1</v>
       </c>
       <c r="X46" s="4" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>start /wait python generarentidades.py sll m4sll_mto_seg_inte "id_organization|String,id_app_role|String" "msi_secuencia|Long" "" "id_organization|String" "id_organization|String,id_app_role|String,msi_secuencia|Long" sec1</v>
       </c>
       <c r="Y46" s="35" t="s">
-        <v>417</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.3">
@@ -6794,7 +6801,7 @@
         <v/>
       </c>
       <c r="S47" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(COUNTBLANK(N47)&gt;0,"",""""&amp;M47&amp;"""")</f>
         <v/>
       </c>
       <c r="T47" s="17" t="str">
@@ -21160,7 +21167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -21208,12 +21215,12 @@
     </row>
     <row r="8" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -21313,7 +21320,7 @@
     </row>
     <row r="29" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -21343,7 +21350,7 @@
     </row>
     <row r="35" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -21443,22 +21450,22 @@
     </row>
     <row r="55" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -21493,12 +21500,12 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
@@ -21508,7 +21515,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -21553,22 +21560,22 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
@@ -21633,7 +21640,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B1" t="s">
         <v>171</v>
@@ -21641,158 +21648,158 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" t="s">
         <v>520</v>
-      </c>
-      <c r="B2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" t="s">
         <v>522</v>
-      </c>
-      <c r="B3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" t="s">
         <v>524</v>
-      </c>
-      <c r="B4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B9" t="s">
         <v>530</v>
-      </c>
-      <c r="B9" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10" t="s">
         <v>532</v>
-      </c>
-      <c r="B10" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B11" t="s">
         <v>534</v>
-      </c>
-      <c r="B11" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B13" t="s">
         <v>537</v>
-      </c>
-      <c r="B13" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" t="s">
         <v>541</v>
-      </c>
-      <c r="B16" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>548</v>
+      </c>
+      <c r="B23" t="s">
         <v>549</v>
-      </c>
-      <c r="B23" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B25" t="s">
         <v>196</v>
@@ -21800,44 +21807,44 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>552</v>
+      </c>
+      <c r="B26" t="s">
         <v>553</v>
-      </c>
-      <c r="B26" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" t="s">
         <v>555</v>
-      </c>
-      <c r="B27" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>557</v>
+      </c>
+      <c r="B29" t="s">
         <v>558</v>
-      </c>
-      <c r="B29" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>559</v>
+      </c>
+      <c r="B30" t="s">
         <v>560</v>
-      </c>
-      <c r="B30" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B31" t="s">
         <v>201</v>
@@ -21845,7 +21852,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B32" t="s">
         <v>203</v>
@@ -21853,23 +21860,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>563</v>
+      </c>
+      <c r="B33" t="s">
         <v>564</v>
-      </c>
-      <c r="B33" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>565</v>
+      </c>
+      <c r="B34" t="s">
         <v>566</v>
-      </c>
-      <c r="B34" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B35" t="s">
         <v>151</v>
@@ -21877,15 +21884,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>568</v>
+      </c>
+      <c r="B36" t="s">
         <v>569</v>
-      </c>
-      <c r="B36" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B37" t="s">
         <v>211</v>
@@ -21893,28 +21900,28 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>571</v>
+      </c>
+      <c r="B38" t="s">
         <v>572</v>
-      </c>
-      <c r="B38" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>574</v>
+      </c>
+      <c r="B40" t="s">
         <v>575</v>
-      </c>
-      <c r="B40" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B41" t="s">
         <v>216</v>
@@ -21922,28 +21929,28 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>577</v>
+      </c>
+      <c r="B42" t="s">
         <v>578</v>
-      </c>
-      <c r="B42" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>579</v>
+      </c>
+      <c r="B43" t="s">
         <v>580</v>
-      </c>
-      <c r="B43" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B45" t="s">
         <v>220</v>
@@ -21951,20 +21958,20 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>583</v>
+      </c>
+      <c r="B46" t="s">
         <v>584</v>
-      </c>
-      <c r="B46" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B48" t="s">
         <v>225</v>
@@ -21972,7 +21979,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B49" t="s">
         <v>227</v>
@@ -21980,7 +21987,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B50" t="s">
         <v>227</v>
@@ -21988,15 +21995,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>589</v>
+      </c>
+      <c r="B51" t="s">
         <v>590</v>
-      </c>
-      <c r="B51" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B52" t="s">
         <v>233</v>
@@ -22004,12 +22011,12 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B54" t="s">
         <v>231</v>
@@ -22017,38 +22024,38 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>596</v>
+      </c>
+      <c r="B57" t="s">
         <v>597</v>
-      </c>
-      <c r="B57" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>599</v>
+      </c>
+      <c r="B59" t="s">
         <v>600</v>
-      </c>
-      <c r="B59" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B60" t="s">
         <v>241</v>
@@ -22056,20 +22063,20 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>602</v>
+      </c>
+      <c r="B61" t="s">
         <v>603</v>
-      </c>
-      <c r="B61" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B63" t="s">
         <v>245</v>
@@ -22077,20 +22084,20 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>607</v>
+      </c>
+      <c r="B65" t="s">
         <v>608</v>
-      </c>
-      <c r="B65" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B66" t="s">
         <v>249</v>
@@ -22098,33 +22105,33 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>610</v>
+      </c>
+      <c r="B67" t="s">
         <v>611</v>
-      </c>
-      <c r="B67" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>613</v>
+      </c>
+      <c r="B69" t="s">
         <v>614</v>
-      </c>
-      <c r="B69" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B71" t="s">
         <v>255</v>
@@ -22132,23 +22139,23 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>617</v>
+      </c>
+      <c r="B72" t="s">
         <v>618</v>
-      </c>
-      <c r="B72" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>619</v>
+      </c>
+      <c r="B73" t="s">
         <v>620</v>
-      </c>
-      <c r="B73" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B74" t="s">
         <v>151</v>
@@ -22156,30 +22163,30 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>625</v>
+      </c>
+      <c r="B78" t="s">
         <v>626</v>
-      </c>
-      <c r="B78" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B79" t="s">
         <v>151</v>
@@ -22187,88 +22194,88 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B81" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>631</v>
+      </c>
+      <c r="B83" t="s">
         <v>632</v>
-      </c>
-      <c r="B83" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>633</v>
+      </c>
+      <c r="B84" t="s">
         <v>634</v>
-      </c>
-      <c r="B84" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>635</v>
+      </c>
+      <c r="B85" t="s">
         <v>636</v>
-      </c>
-      <c r="B85" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>637</v>
+      </c>
+      <c r="B86" t="s">
         <v>638</v>
-      </c>
-      <c r="B86" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B88" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>641</v>
+      </c>
+      <c r="B89" t="s">
         <v>642</v>
-      </c>
-      <c r="B89" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B92" t="s">
         <v>276</v>
@@ -22276,261 +22283,261 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>646</v>
+      </c>
+      <c r="B93" t="s">
         <v>647</v>
-      </c>
-      <c r="B93" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>648</v>
+      </c>
+      <c r="B94" t="s">
         <v>649</v>
-      </c>
-      <c r="B94" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>650</v>
+      </c>
+      <c r="B95" t="s">
         <v>651</v>
-      </c>
-      <c r="B95" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>653</v>
+      </c>
+      <c r="B97" t="s">
         <v>654</v>
-      </c>
-      <c r="B97" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>655</v>
+      </c>
+      <c r="B98" t="s">
         <v>656</v>
-      </c>
-      <c r="B98" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>658</v>
+      </c>
+      <c r="B100" t="s">
         <v>659</v>
-      </c>
-      <c r="B100" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>660</v>
+      </c>
+      <c r="B101" t="s">
         <v>661</v>
-      </c>
-      <c r="B101" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>662</v>
+      </c>
+      <c r="B102" t="s">
         <v>663</v>
-      </c>
-      <c r="B102" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>664</v>
+      </c>
+      <c r="B103" t="s">
         <v>665</v>
-      </c>
-      <c r="B103" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>666</v>
+      </c>
+      <c r="B104" t="s">
         <v>667</v>
-      </c>
-      <c r="B104" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>668</v>
+      </c>
+      <c r="B105" t="s">
         <v>669</v>
-      </c>
-      <c r="B105" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>670</v>
+      </c>
+      <c r="B106" t="s">
         <v>671</v>
-      </c>
-      <c r="B106" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>672</v>
+      </c>
+      <c r="B107" t="s">
         <v>673</v>
-      </c>
-      <c r="B107" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>674</v>
+      </c>
+      <c r="B108" t="s">
         <v>675</v>
-      </c>
-      <c r="B108" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>677</v>
+      </c>
+      <c r="B110" t="s">
         <v>678</v>
-      </c>
-      <c r="B110" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>679</v>
+      </c>
+      <c r="B111" t="s">
         <v>680</v>
-      </c>
-      <c r="B111" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>681</v>
+      </c>
+      <c r="B112" t="s">
         <v>682</v>
-      </c>
-      <c r="B112" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>683</v>
+      </c>
+      <c r="B113" t="s">
         <v>684</v>
-      </c>
-      <c r="B113" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>685</v>
+      </c>
+      <c r="B114" t="s">
         <v>686</v>
-      </c>
-      <c r="B114" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>688</v>
+      </c>
+      <c r="B116" t="s">
         <v>689</v>
-      </c>
-      <c r="B116" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>690</v>
+      </c>
+      <c r="B117" t="s">
         <v>691</v>
-      </c>
-      <c r="B117" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B119" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>694</v>
+      </c>
+      <c r="B120" t="s">
         <v>695</v>
-      </c>
-      <c r="B120" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>696</v>
+      </c>
+      <c r="B121" t="s">
         <v>697</v>
-      </c>
-      <c r="B121" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B123" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B124" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B125" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>702</v>
+      </c>
+      <c r="B126" t="s">
         <v>703</v>
-      </c>
-      <c r="B126" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B127" t="s">
         <v>312</v>
@@ -22538,83 +22545,83 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>705</v>
+      </c>
+      <c r="B128" t="s">
         <v>706</v>
-      </c>
-      <c r="B128" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B130" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>709</v>
+      </c>
+      <c r="B131" t="s">
         <v>710</v>
-      </c>
-      <c r="B131" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>711</v>
+      </c>
+      <c r="B132" t="s">
         <v>712</v>
-      </c>
-      <c r="B132" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>715</v>
+      </c>
+      <c r="B135" t="s">
         <v>716</v>
-      </c>
-      <c r="B135" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>718</v>
+      </c>
+      <c r="B137" t="s">
         <v>719</v>
-      </c>
-      <c r="B137" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>720</v>
+      </c>
+      <c r="B138" t="s">
         <v>721</v>
-      </c>
-      <c r="B138" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B139" t="s">
         <v>325</v>
@@ -22622,339 +22629,339 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>723</v>
+      </c>
+      <c r="B140" t="s">
         <v>724</v>
-      </c>
-      <c r="B140" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>725</v>
+      </c>
+      <c r="B141" t="s">
         <v>726</v>
-      </c>
-      <c r="B141" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>727</v>
+      </c>
+      <c r="B142" t="s">
         <v>728</v>
-      </c>
-      <c r="B142" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B143" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>730</v>
+      </c>
+      <c r="B144" t="s">
         <v>731</v>
-      </c>
-      <c r="B144" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>733</v>
+      </c>
+      <c r="B146" t="s">
         <v>734</v>
-      </c>
-      <c r="B146" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>735</v>
+      </c>
+      <c r="B147" t="s">
         <v>736</v>
-      </c>
-      <c r="B147" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>737</v>
+      </c>
+      <c r="B148" t="s">
         <v>738</v>
-      </c>
-      <c r="B148" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>739</v>
+      </c>
+      <c r="B149" t="s">
         <v>740</v>
-      </c>
-      <c r="B149" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>741</v>
+      </c>
+      <c r="B150" t="s">
         <v>742</v>
-      </c>
-      <c r="B150" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>743</v>
+      </c>
+      <c r="B151" t="s">
         <v>744</v>
-      </c>
-      <c r="B151" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>745</v>
+      </c>
+      <c r="B152" t="s">
         <v>746</v>
-      </c>
-      <c r="B152" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>748</v>
+      </c>
+      <c r="B154" t="s">
         <v>749</v>
-      </c>
-      <c r="B154" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>751</v>
+      </c>
+      <c r="B156" t="s">
         <v>752</v>
-      </c>
-      <c r="B156" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B158" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>756</v>
+      </c>
+      <c r="B160" t="s">
         <v>757</v>
-      </c>
-      <c r="B160" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>758</v>
+      </c>
+      <c r="B161" t="s">
         <v>759</v>
-      </c>
-      <c r="B161" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>761</v>
+      </c>
+      <c r="B163" t="s">
         <v>762</v>
-      </c>
-      <c r="B163" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>764</v>
+      </c>
+      <c r="B165" t="s">
         <v>765</v>
-      </c>
-      <c r="B165" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>767</v>
+      </c>
+      <c r="B167" t="s">
         <v>768</v>
-      </c>
-      <c r="B167" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>769</v>
+      </c>
+      <c r="B168" t="s">
         <v>770</v>
-      </c>
-      <c r="B168" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>772</v>
+      </c>
+      <c r="B170" t="s">
         <v>773</v>
-      </c>
-      <c r="B170" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>775</v>
+      </c>
+      <c r="B172" t="s">
         <v>776</v>
-      </c>
-      <c r="B172" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>777</v>
+      </c>
+      <c r="B173" t="s">
         <v>778</v>
-      </c>
-      <c r="B173" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>779</v>
+      </c>
+      <c r="B174" t="s">
         <v>780</v>
-      </c>
-      <c r="B174" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>781</v>
+      </c>
+      <c r="B175" t="s">
         <v>782</v>
-      </c>
-      <c r="B175" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>783</v>
+      </c>
+      <c r="B176" t="s">
         <v>784</v>
-      </c>
-      <c r="B176" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>786</v>
+      </c>
+      <c r="B178" t="s">
         <v>787</v>
-      </c>
-      <c r="B178" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>788</v>
+      </c>
+      <c r="B179" t="s">
         <v>789</v>
-      </c>
-      <c r="B179" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>791</v>
+      </c>
+      <c r="B181" t="s">
         <v>792</v>
-      </c>
-      <c r="B181" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>793</v>
+      </c>
+      <c r="B182" t="s">
         <v>794</v>
-      </c>
-      <c r="B182" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>795</v>
+      </c>
+      <c r="B183" t="s">
         <v>796</v>
-      </c>
-      <c r="B183" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>797</v>
+      </c>
+      <c r="B184" t="s">
         <v>798</v>
-      </c>
-      <c r="B184" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>799</v>
+      </c>
+      <c r="B185" t="s">
         <v>800</v>
-      </c>
-      <c r="B185" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B186" t="s">
         <v>151</v>
@@ -22983,7 +22990,7 @@
         <v>163</v>
       </c>
       <c r="B190" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -22999,7 +23006,7 @@
         <v>461</v>
       </c>
       <c r="B192" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -23007,7 +23014,7 @@
         <v>165</v>
       </c>
       <c r="B193" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -23015,7 +23022,7 @@
         <v>166</v>
       </c>
       <c r="B194" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -23023,7 +23030,7 @@
         <v>167</v>
       </c>
       <c r="B195" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -23031,7 +23038,7 @@
         <v>168</v>
       </c>
       <c r="B196" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -23039,7 +23046,7 @@
         <v>169</v>
       </c>
       <c r="B197" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -23055,7 +23062,7 @@
         <v>172</v>
       </c>
       <c r="B199" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -23063,7 +23070,7 @@
         <v>173</v>
       </c>
       <c r="B200" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -23071,7 +23078,7 @@
         <v>174</v>
       </c>
       <c r="B201" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -23079,7 +23086,7 @@
         <v>175</v>
       </c>
       <c r="B202" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -23087,7 +23094,7 @@
         <v>176</v>
       </c>
       <c r="B203" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -23105,7 +23112,7 @@
         <v>179</v>
       </c>
       <c r="B206" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -23118,7 +23125,7 @@
         <v>181</v>
       </c>
       <c r="B208" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -23131,7 +23138,7 @@
         <v>183</v>
       </c>
       <c r="B210" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -23149,7 +23156,7 @@
         <v>186</v>
       </c>
       <c r="B213" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -23177,7 +23184,7 @@
         <v>191</v>
       </c>
       <c r="B218" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -23185,7 +23192,7 @@
         <v>192</v>
       </c>
       <c r="B219" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -23198,7 +23205,7 @@
         <v>194</v>
       </c>
       <c r="B221" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -23214,7 +23221,7 @@
         <v>197</v>
       </c>
       <c r="B223" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -23222,7 +23229,7 @@
         <v>198</v>
       </c>
       <c r="B224" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -23230,7 +23237,7 @@
         <v>199</v>
       </c>
       <c r="B225" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -23254,7 +23261,7 @@
         <v>204</v>
       </c>
       <c r="B228" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -23267,7 +23274,7 @@
         <v>206</v>
       </c>
       <c r="B230" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -23275,7 +23282,7 @@
         <v>207</v>
       </c>
       <c r="B231" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -23291,7 +23298,7 @@
         <v>209</v>
       </c>
       <c r="B233" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -23307,7 +23314,7 @@
         <v>212</v>
       </c>
       <c r="B235" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -23320,7 +23327,7 @@
         <v>214</v>
       </c>
       <c r="B237" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -23336,7 +23343,7 @@
         <v>217</v>
       </c>
       <c r="B239" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -23357,7 +23364,7 @@
         <v>221</v>
       </c>
       <c r="B242" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -23365,7 +23372,7 @@
         <v>222</v>
       </c>
       <c r="B243" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -23402,7 +23409,7 @@
         <v>229</v>
       </c>
       <c r="B248" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -23441,7 +23448,7 @@
         <v>237</v>
       </c>
       <c r="B254" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -23454,7 +23461,7 @@
         <v>239</v>
       </c>
       <c r="B256" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -23470,7 +23477,7 @@
         <v>242</v>
       </c>
       <c r="B258" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -23496,7 +23503,7 @@
         <v>247</v>
       </c>
       <c r="B262" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -23512,7 +23519,7 @@
         <v>250</v>
       </c>
       <c r="B264" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -23525,7 +23532,7 @@
         <v>252</v>
       </c>
       <c r="B266" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -23546,7 +23553,7 @@
         <v>256</v>
       </c>
       <c r="B269" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -23554,7 +23561,7 @@
         <v>257</v>
       </c>
       <c r="B270" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -23562,7 +23569,7 @@
         <v>258</v>
       </c>
       <c r="B271" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -23575,7 +23582,7 @@
         <v>260</v>
       </c>
       <c r="B273" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -23583,7 +23590,7 @@
         <v>261</v>
       </c>
       <c r="B274" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -23614,7 +23621,7 @@
         <v>266</v>
       </c>
       <c r="B279" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -23635,7 +23642,7 @@
         <v>269</v>
       </c>
       <c r="B282" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -23648,7 +23655,7 @@
         <v>271</v>
       </c>
       <c r="B284" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -23656,7 +23663,7 @@
         <v>272</v>
       </c>
       <c r="B285" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -23682,7 +23689,7 @@
         <v>277</v>
       </c>
       <c r="B289" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -23690,7 +23697,7 @@
         <v>278</v>
       </c>
       <c r="B290" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -23698,7 +23705,7 @@
         <v>279</v>
       </c>
       <c r="B291" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -23706,7 +23713,7 @@
         <v>280</v>
       </c>
       <c r="B292" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -23716,18 +23723,18 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>809</v>
+      </c>
+      <c r="B294" t="s">
         <v>810</v>
-      </c>
-      <c r="B294" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>811</v>
+      </c>
+      <c r="B295" t="s">
         <v>812</v>
-      </c>
-      <c r="B295" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -23735,7 +23742,7 @@
         <v>282</v>
       </c>
       <c r="B296" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -23743,7 +23750,7 @@
         <v>283</v>
       </c>
       <c r="B297" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -23756,7 +23763,7 @@
         <v>285</v>
       </c>
       <c r="B299" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -23764,7 +23771,7 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -23777,7 +23784,7 @@
         <v>288</v>
       </c>
       <c r="B302" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -23785,7 +23792,7 @@
         <v>289</v>
       </c>
       <c r="B303" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -23793,7 +23800,7 @@
         <v>290</v>
       </c>
       <c r="B304" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -23801,7 +23808,7 @@
         <v>291</v>
       </c>
       <c r="B305" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -23809,7 +23816,7 @@
         <v>292</v>
       </c>
       <c r="B306" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -23817,7 +23824,7 @@
         <v>293</v>
       </c>
       <c r="B307" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -23825,7 +23832,7 @@
         <v>294</v>
       </c>
       <c r="B308" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -23833,7 +23840,7 @@
         <v>295</v>
       </c>
       <c r="B309" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -23841,7 +23848,7 @@
         <v>296</v>
       </c>
       <c r="B310" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -23854,7 +23861,7 @@
         <v>298</v>
       </c>
       <c r="B312" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -23862,7 +23869,7 @@
         <v>299</v>
       </c>
       <c r="B313" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -23870,7 +23877,7 @@
         <v>300</v>
       </c>
       <c r="B314" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -23878,7 +23885,7 @@
         <v>301</v>
       </c>
       <c r="B315" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -23886,7 +23893,7 @@
         <v>302</v>
       </c>
       <c r="B316" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -23899,7 +23906,7 @@
         <v>304</v>
       </c>
       <c r="B318" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -23907,7 +23914,7 @@
         <v>305</v>
       </c>
       <c r="B319" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -23915,7 +23922,7 @@
         <v>306</v>
       </c>
       <c r="B320" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -23928,7 +23935,7 @@
         <v>308</v>
       </c>
       <c r="B322" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -23936,7 +23943,7 @@
         <v>309</v>
       </c>
       <c r="B323" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -23944,7 +23951,7 @@
         <v>310</v>
       </c>
       <c r="B324" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -23960,7 +23967,7 @@
         <v>313</v>
       </c>
       <c r="B326" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -23968,7 +23975,7 @@
         <v>314</v>
       </c>
       <c r="B327" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -23976,7 +23983,7 @@
         <v>315</v>
       </c>
       <c r="B328" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -23989,7 +23996,7 @@
         <v>317</v>
       </c>
       <c r="B330" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -23997,7 +24004,7 @@
         <v>318</v>
       </c>
       <c r="B331" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -24015,7 +24022,7 @@
         <v>321</v>
       </c>
       <c r="B334" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -24028,7 +24035,7 @@
         <v>323</v>
       </c>
       <c r="B336" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -24044,7 +24051,7 @@
         <v>326</v>
       </c>
       <c r="B338" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -24052,7 +24059,7 @@
         <v>327</v>
       </c>
       <c r="B339" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -24060,7 +24067,7 @@
         <v>328</v>
       </c>
       <c r="B340" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -24068,7 +24075,7 @@
         <v>329</v>
       </c>
       <c r="B341" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -24076,7 +24083,7 @@
         <v>330</v>
       </c>
       <c r="B342" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -24084,7 +24091,7 @@
         <v>331</v>
       </c>
       <c r="B343" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -24097,7 +24104,7 @@
         <v>333</v>
       </c>
       <c r="B345" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -24105,7 +24112,7 @@
         <v>334</v>
       </c>
       <c r="B346" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -24113,7 +24120,7 @@
         <v>335</v>
       </c>
       <c r="B347" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -24121,7 +24128,7 @@
         <v>336</v>
       </c>
       <c r="B348" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -24129,7 +24136,7 @@
         <v>337</v>
       </c>
       <c r="B349" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -24137,7 +24144,7 @@
         <v>338</v>
       </c>
       <c r="B350" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -24145,7 +24152,7 @@
         <v>339</v>
       </c>
       <c r="B351" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -24158,7 +24165,7 @@
         <v>341</v>
       </c>
       <c r="B353" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -24171,7 +24178,7 @@
         <v>343</v>
       </c>
       <c r="B355" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -24184,7 +24191,7 @@
         <v>345</v>
       </c>
       <c r="B357" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -24197,7 +24204,7 @@
         <v>347</v>
       </c>
       <c r="B359" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -24205,7 +24212,7 @@
         <v>348</v>
       </c>
       <c r="B360" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -24218,7 +24225,7 @@
         <v>350</v>
       </c>
       <c r="B362" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -24231,7 +24238,7 @@
         <v>352</v>
       </c>
       <c r="B364" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -24244,7 +24251,7 @@
         <v>354</v>
       </c>
       <c r="B366" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -24252,7 +24259,7 @@
         <v>355</v>
       </c>
       <c r="B367" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -24265,7 +24272,7 @@
         <v>357</v>
       </c>
       <c r="B369" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -24278,7 +24285,7 @@
         <v>359</v>
       </c>
       <c r="B371" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -24286,7 +24293,7 @@
         <v>360</v>
       </c>
       <c r="B372" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -24294,7 +24301,7 @@
         <v>361</v>
       </c>
       <c r="B373" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -24302,7 +24309,7 @@
         <v>362</v>
       </c>
       <c r="B374" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -24310,7 +24317,7 @@
         <v>363</v>
       </c>
       <c r="B375" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -24318,7 +24325,7 @@
         <v>364</v>
       </c>
       <c r="B376" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -24328,10 +24335,10 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B378" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -24339,7 +24346,7 @@
         <v>366</v>
       </c>
       <c r="B379" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -24352,15 +24359,15 @@
         <v>368</v>
       </c>
       <c r="B381" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B382" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -24368,7 +24375,7 @@
         <v>369</v>
       </c>
       <c r="B383" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -24376,7 +24383,7 @@
         <v>370</v>
       </c>
       <c r="B384" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -24384,7 +24391,7 @@
         <v>371</v>
       </c>
       <c r="B385" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -24392,7 +24399,7 @@
         <v>372</v>
       </c>
       <c r="B386" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -24425,7 +24432,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A2,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24444,7 +24451,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B4" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A4,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24474,7 +24481,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B7" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A7,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24484,7 +24491,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B8" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A8,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24504,7 +24511,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B10" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A10,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24613,7 +24620,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B22" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A22,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24622,7 +24629,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B23" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A23,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24802,7 +24809,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B43" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A43,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24829,7 +24836,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B46" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A46,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -26144,212 +26151,212 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/generarentidades/generarComandoPython.xlsx
+++ b/generarentidades/generarComandoPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asd\Desktop\laburo\prosegur\proyectos\sll_cloud\sll_cloud\generarentidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915EDD33-0E2D-461D-8813-B4243771D916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E74085A-FF7D-4010-A3A3-1D26DADC9783}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="842">
   <si>
     <t>Templates</t>
   </si>
@@ -1434,9 +1434,6 @@
     <t>ccd_id_secuencia|Long</t>
   </si>
   <si>
-    <t>tpe_id_pedido|String,lit_id_litigio|String</t>
-  </si>
-  <si>
     <t xml:space="preserve">                AND LOWER(tab.table_schema) in ('sll', 'public')</t>
   </si>
   <si>
@@ -2554,6 +2551,9 @@
   </si>
   <si>
     <t>Si! En la entidad (json en las fechas)</t>
+  </si>
+  <si>
+    <t>Si! Esta todo hecho a mano mejor no pisarlo</t>
   </si>
 </sst>
 </file>
@@ -3269,8 +3269,8 @@
   <dimension ref="A1:Y246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3329,25 +3329,25 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>835</v>
-      </c>
       <c r="I3" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>139</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M3" s="29" t="s">
         <v>142</v>
@@ -3374,20 +3374,20 @@
         <v>152</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="V3" s="15" t="str">
         <f>A5</f>
         <v>TemplateIdx</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="Y3" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3595,7 +3595,7 @@
         <v>id_organization|String</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N6" s="17" t="str">
         <f t="shared" si="2"/>
@@ -3642,7 +3642,7 @@
         <v>start /wait python generarentidades.py sll m4sll_mt_abogados "id_organization|String" "mab_secuencia|Long" "id_organization|String,mab_chk_int|String" "id_organization|String" "id_organization|String,mab_secuencia|Long" sec1</v>
       </c>
       <c r="Y6" s="35" t="s">
-        <v>838</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -4452,7 +4452,7 @@
         <v>id_organization|String,tpe_id_tp_entidad|String</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="str">
@@ -4996,7 +4996,7 @@
         <v>id_organization|String,tsd_id_tp_sta_det|String</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="str">
@@ -5075,7 +5075,7 @@
         <v>411</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5159,9 +5159,7 @@
         <f t="shared" si="1"/>
         <v>id_organization|String</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>468</v>
-      </c>
+      <c r="M26" s="3"/>
       <c r="N26" s="17" t="str">
         <f t="shared" si="2"/>
         <v>start /wait python generarentidades.py</v>
@@ -5184,10 +5182,10 @@
       </c>
       <c r="S26" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"tpe_id_pedido|String,lit_id_litigio|String"</v>
+        <v>""</v>
       </c>
       <c r="T26" s="17" t="str">
-        <f>IF(COUNTBLANK(N26)&gt;0,"",""""&amp;L26&amp;"""")</f>
+        <f t="shared" si="8"/>
         <v>"id_organization|String"</v>
       </c>
       <c r="U26" s="17" t="str">
@@ -5204,7 +5202,7 @@
       </c>
       <c r="X26" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>start /wait python generarentidades.py sll m4sll_pedido_det "id_organization|String,lit_id_litigio|String,tpe_id_pedido|String" "pde_secuencia|Long" "tpe_id_pedido|String,lit_id_litigio|String" "id_organization|String" "id_organization|String,lit_id_litigio|String,tpe_id_pedido|String,pde_secuencia|Long" sec1</v>
+        <v>start /wait python generarentidades.py sll m4sll_pedido_det "id_organization|String,lit_id_litigio|String,tpe_id_pedido|String" "pde_secuencia|Long" "" "id_organization|String" "id_organization|String,lit_id_litigio|String,tpe_id_pedido|String,pde_secuencia|Long" sec1</v>
       </c>
       <c r="Y26" s="35" t="s">
         <v>417</v>
@@ -5239,9 +5237,7 @@
         <f t="shared" si="1"/>
         <v>id_organization|String</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="M27" s="3"/>
       <c r="N27" s="17" t="str">
         <f t="shared" si="2"/>
         <v>start /wait python generarentidades.py</v>
@@ -5264,7 +5260,7 @@
       </c>
       <c r="S27" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"lit_id_litigio|String"</v>
+        <v>""</v>
       </c>
       <c r="T27" s="17" t="str">
         <f t="shared" si="8"/>
@@ -5284,7 +5280,7 @@
       </c>
       <c r="X27" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>start /wait python generarentidades.py sll m4sll_lit_seguimie "id_organization|String,lit_id_litigio|String" "lis_secuencia|Long" "lit_id_litigio|String" "id_organization|String" "id_organization|String,lit_id_litigio|String,lis_secuencia|Long" sec1</v>
+        <v>start /wait python generarentidades.py sll m4sll_lit_seguimie "id_organization|String,lit_id_litigio|String" "lis_secuencia|Long" "" "id_organization|String" "id_organization|String,lit_id_litigio|String,lis_secuencia|Long" sec1</v>
       </c>
       <c r="Y27" s="35" t="s">
         <v>417</v>
@@ -5388,10 +5384,10 @@
         <v>id_organization|String,std_id_country|String,std_id_geo_div|String</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5466,7 +5462,7 @@
         <v>id_organization|String,std_id_country|String,std_id_geo_div|String,std_id_sub_geo_div|String,std_id_geo_place|String</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>463</v>
@@ -5544,7 +5540,7 @@
         <v>id_organization|String,std_id_leg_ent|String</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="str">
@@ -5622,7 +5618,7 @@
         <v>id_organization|String,std_id_person|String</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3" t="str">
@@ -5698,7 +5694,7 @@
         <v>id_organization|String,std_id_country|String,std_id_geo_div|String,std_id_sub_geo_div|String</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>464</v>
@@ -5903,7 +5899,7 @@
         <v>start /wait python generarentidades.py sll m4sll_doc_litigios "id_organization|String,lit_id_litigio|String" "dol_secuencia|Long" "" "id_organization|String" "id_organization|String,dol_secuencia|Long,lit_id_litigio|String" sec1</v>
       </c>
       <c r="Y35" s="35" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="4:25" x14ac:dyDescent="0.3">
@@ -5929,7 +5925,7 @@
         <v>151</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L36" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5981,7 +5977,7 @@
         <v>start /wait python generarentidades.py sll m4sll_autor_reu "id_organization|String,lit_id_litigio|String" "aur_secuencia|Long" "" "id_organization|String" "id_organization|String,lit_id_litigio|String,aur_secuencia|Long" sec1</v>
       </c>
       <c r="Y36" s="35" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="4:25" x14ac:dyDescent="0.3">
@@ -6080,10 +6076,10 @@
         <v>id_organization|String,lit_id_litigio|String,tfa_id_tp_fase|String</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L38" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6137,7 +6133,7 @@
         <v>start /wait python generarentidades.py sll m4sll_fases "id_organization|String,lit_id_litigio|String,tfa_id_tp_fase|String" "fas_secuencia|Long" "id_organization|String,lit_id_litigio|String" "id_organization|String" "id_organization|String,lit_id_litigio|String,tfa_id_tp_fase|String" sec1</v>
       </c>
       <c r="Y38" s="35" t="s">
-        <v>417</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39" spans="4:25" x14ac:dyDescent="0.3">
@@ -6213,7 +6209,7 @@
         <v/>
       </c>
       <c r="Y39" s="35" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="40" spans="4:25" x14ac:dyDescent="0.3">
@@ -6239,7 +6235,7 @@
         <v>151</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L40" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6549,9 +6545,7 @@
         <f t="shared" si="1"/>
         <v>id_organization|String</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="M44" s="3"/>
       <c r="N44" s="17" t="str">
         <f t="shared" si="2"/>
         <v>start /wait python generarentidades.py</v>
@@ -6574,7 +6568,7 @@
       </c>
       <c r="S44" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"lit_id_litigio|String"</v>
+        <v>""</v>
       </c>
       <c r="T44" s="17" t="str">
         <f t="shared" si="8"/>
@@ -6594,7 +6588,7 @@
       </c>
       <c r="X44" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>start /wait python generarentidades.py sll m4sll_cpe_cejpj_c "id_organization|String,lit_id_litigio|String" "" "lit_id_litigio|String" "id_organization|String" "id_organization|String,lit_id_litigio|String" sec0</v>
+        <v>start /wait python generarentidades.py sll m4sll_cpe_cejpj_c "id_organization|String,lit_id_litigio|String" "" "" "id_organization|String" "id_organization|String,lit_id_litigio|String" sec0</v>
       </c>
       <c r="Y44" s="35" t="s">
         <v>417</v>
@@ -6629,9 +6623,7 @@
         <f t="shared" si="1"/>
         <v>id_organization|String</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="M45" s="3"/>
       <c r="N45" s="17" t="str">
         <f t="shared" si="2"/>
         <v>start /wait python generarentidades.py</v>
@@ -6654,7 +6646,7 @@
       </c>
       <c r="S45" s="17" t="str">
         <f t="shared" si="7"/>
-        <v>"lit_id_litigio|String"</v>
+        <v>""</v>
       </c>
       <c r="T45" s="17" t="str">
         <f t="shared" si="8"/>
@@ -6674,7 +6666,7 @@
       </c>
       <c r="X45" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>start /wait python generarentidades.py sll m4sll_cpe_cejpj_d "id_organization|String,lit_id_litigio|String" "ccd_id_secuencia|Long" "lit_id_litigio|String" "id_organization|String" "id_organization|String,lit_id_litigio|String,ccd_id_secuencia|Long" sec1</v>
+        <v>start /wait python generarentidades.py sll m4sll_cpe_cejpj_d "id_organization|String,lit_id_litigio|String" "ccd_id_secuencia|Long" "" "id_organization|String" "id_organization|String,lit_id_litigio|String,ccd_id_secuencia|Long" sec1</v>
       </c>
       <c r="Y45" s="35" t="s">
         <v>417</v>
@@ -6689,7 +6681,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H46" s="20" t="str">
         <f>IF(COUNTBLANK(G46)&gt;0,"",VLOOKUP(F46&amp;"."&amp;G46,ResultadoSQL!A:B,2,FALSE))</f>
@@ -6703,7 +6695,7 @@
         <v>325</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L46" s="3" t="str">
         <f t="shared" si="1"/>
@@ -6731,7 +6723,7 @@
         <v>"msi_secuencia|Long"</v>
       </c>
       <c r="S46" s="17" t="str">
-        <f>IF(COUNTBLANK(N46)&gt;0,"",""""&amp;M46&amp;"""")</f>
+        <f t="shared" si="7"/>
         <v>""</v>
       </c>
       <c r="T46" s="17" t="str">
@@ -6755,7 +6747,7 @@
         <v>start /wait python generarentidades.py sll m4sll_mto_seg_inte "id_organization|String,id_app_role|String" "msi_secuencia|Long" "" "id_organization|String" "id_organization|String,id_app_role|String,msi_secuencia|Long" sec1</v>
       </c>
       <c r="Y46" s="35" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="4:25" x14ac:dyDescent="0.3">
@@ -6801,7 +6793,7 @@
         <v/>
       </c>
       <c r="S47" s="17" t="str">
-        <f>IF(COUNTBLANK(N47)&gt;0,"",""""&amp;M47&amp;"""")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T47" s="17" t="str">
@@ -21215,12 +21207,12 @@
     </row>
     <row r="8" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -21320,7 +21312,7 @@
     </row>
     <row r="29" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -21350,7 +21342,7 @@
     </row>
     <row r="35" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -21450,22 +21442,22 @@
     </row>
     <row r="55" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -21500,12 +21492,12 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
@@ -21515,7 +21507,7 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
@@ -21560,22 +21552,22 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
@@ -21640,7 +21632,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1" t="s">
         <v>171</v>
@@ -21648,158 +21640,158 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" t="s">
         <v>521</v>
-      </c>
-      <c r="B3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" t="s">
         <v>523</v>
-      </c>
-      <c r="B4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B9" t="s">
         <v>529</v>
-      </c>
-      <c r="B9" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B10" t="s">
         <v>531</v>
-      </c>
-      <c r="B10" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" t="s">
         <v>533</v>
-      </c>
-      <c r="B11" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13" t="s">
         <v>536</v>
-      </c>
-      <c r="B13" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>539</v>
+      </c>
+      <c r="B16" t="s">
         <v>540</v>
-      </c>
-      <c r="B16" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>547</v>
+      </c>
+      <c r="B23" t="s">
         <v>548</v>
-      </c>
-      <c r="B23" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B25" t="s">
         <v>196</v>
@@ -21807,44 +21799,44 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>551</v>
+      </c>
+      <c r="B26" t="s">
         <v>552</v>
-      </c>
-      <c r="B26" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>553</v>
+      </c>
+      <c r="B27" t="s">
         <v>554</v>
-      </c>
-      <c r="B27" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>556</v>
+      </c>
+      <c r="B29" t="s">
         <v>557</v>
-      </c>
-      <c r="B29" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>558</v>
+      </c>
+      <c r="B30" t="s">
         <v>559</v>
-      </c>
-      <c r="B30" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B31" t="s">
         <v>201</v>
@@ -21852,7 +21844,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B32" t="s">
         <v>203</v>
@@ -21860,23 +21852,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>562</v>
+      </c>
+      <c r="B33" t="s">
         <v>563</v>
-      </c>
-      <c r="B33" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>564</v>
+      </c>
+      <c r="B34" t="s">
         <v>565</v>
-      </c>
-      <c r="B34" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B35" t="s">
         <v>151</v>
@@ -21884,15 +21876,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>567</v>
+      </c>
+      <c r="B36" t="s">
         <v>568</v>
-      </c>
-      <c r="B36" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B37" t="s">
         <v>211</v>
@@ -21900,28 +21892,28 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>570</v>
+      </c>
+      <c r="B38" t="s">
         <v>571</v>
-      </c>
-      <c r="B38" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>573</v>
+      </c>
+      <c r="B40" t="s">
         <v>574</v>
-      </c>
-      <c r="B40" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B41" t="s">
         <v>216</v>
@@ -21929,28 +21921,28 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>576</v>
+      </c>
+      <c r="B42" t="s">
         <v>577</v>
-      </c>
-      <c r="B42" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>578</v>
+      </c>
+      <c r="B43" t="s">
         <v>579</v>
-      </c>
-      <c r="B43" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B45" t="s">
         <v>220</v>
@@ -21958,20 +21950,20 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>582</v>
+      </c>
+      <c r="B46" t="s">
         <v>583</v>
-      </c>
-      <c r="B46" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B48" t="s">
         <v>225</v>
@@ -21979,7 +21971,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B49" t="s">
         <v>227</v>
@@ -21987,7 +21979,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B50" t="s">
         <v>227</v>
@@ -21995,15 +21987,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>588</v>
+      </c>
+      <c r="B51" t="s">
         <v>589</v>
-      </c>
-      <c r="B51" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B52" t="s">
         <v>233</v>
@@ -22011,12 +22003,12 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B54" t="s">
         <v>231</v>
@@ -22024,38 +22016,38 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>595</v>
+      </c>
+      <c r="B57" t="s">
         <v>596</v>
-      </c>
-      <c r="B57" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>598</v>
+      </c>
+      <c r="B59" t="s">
         <v>599</v>
-      </c>
-      <c r="B59" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B60" t="s">
         <v>241</v>
@@ -22063,20 +22055,20 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>601</v>
+      </c>
+      <c r="B61" t="s">
         <v>602</v>
-      </c>
-      <c r="B61" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B63" t="s">
         <v>245</v>
@@ -22084,20 +22076,20 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>606</v>
+      </c>
+      <c r="B65" t="s">
         <v>607</v>
-      </c>
-      <c r="B65" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B66" t="s">
         <v>249</v>
@@ -22105,33 +22097,33 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>609</v>
+      </c>
+      <c r="B67" t="s">
         <v>610</v>
-      </c>
-      <c r="B67" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>612</v>
+      </c>
+      <c r="B69" t="s">
         <v>613</v>
-      </c>
-      <c r="B69" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B71" t="s">
         <v>255</v>
@@ -22139,23 +22131,23 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>616</v>
+      </c>
+      <c r="B72" t="s">
         <v>617</v>
-      </c>
-      <c r="B72" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>618</v>
+      </c>
+      <c r="B73" t="s">
         <v>619</v>
-      </c>
-      <c r="B73" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B74" t="s">
         <v>151</v>
@@ -22163,30 +22155,30 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>624</v>
+      </c>
+      <c r="B78" t="s">
         <v>625</v>
-      </c>
-      <c r="B78" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B79" t="s">
         <v>151</v>
@@ -22194,88 +22186,88 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B81" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>630</v>
+      </c>
+      <c r="B83" t="s">
         <v>631</v>
-      </c>
-      <c r="B83" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>632</v>
+      </c>
+      <c r="B84" t="s">
         <v>633</v>
-      </c>
-      <c r="B84" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>634</v>
+      </c>
+      <c r="B85" t="s">
         <v>635</v>
-      </c>
-      <c r="B85" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>636</v>
+      </c>
+      <c r="B86" t="s">
         <v>637</v>
-      </c>
-      <c r="B86" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B88" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>640</v>
+      </c>
+      <c r="B89" t="s">
         <v>641</v>
-      </c>
-      <c r="B89" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B92" t="s">
         <v>276</v>
@@ -22283,261 +22275,261 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>645</v>
+      </c>
+      <c r="B93" t="s">
         <v>646</v>
-      </c>
-      <c r="B93" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>647</v>
+      </c>
+      <c r="B94" t="s">
         <v>648</v>
-      </c>
-      <c r="B94" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>649</v>
+      </c>
+      <c r="B95" t="s">
         <v>650</v>
-      </c>
-      <c r="B95" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>652</v>
+      </c>
+      <c r="B97" t="s">
         <v>653</v>
-      </c>
-      <c r="B97" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>654</v>
+      </c>
+      <c r="B98" t="s">
         <v>655</v>
-      </c>
-      <c r="B98" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>657</v>
+      </c>
+      <c r="B100" t="s">
         <v>658</v>
-      </c>
-      <c r="B100" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>659</v>
+      </c>
+      <c r="B101" t="s">
         <v>660</v>
-      </c>
-      <c r="B101" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>661</v>
+      </c>
+      <c r="B102" t="s">
         <v>662</v>
-      </c>
-      <c r="B102" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>663</v>
+      </c>
+      <c r="B103" t="s">
         <v>664</v>
-      </c>
-      <c r="B103" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>665</v>
+      </c>
+      <c r="B104" t="s">
         <v>666</v>
-      </c>
-      <c r="B104" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>667</v>
+      </c>
+      <c r="B105" t="s">
         <v>668</v>
-      </c>
-      <c r="B105" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>669</v>
+      </c>
+      <c r="B106" t="s">
         <v>670</v>
-      </c>
-      <c r="B106" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>671</v>
+      </c>
+      <c r="B107" t="s">
         <v>672</v>
-      </c>
-      <c r="B107" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>673</v>
+      </c>
+      <c r="B108" t="s">
         <v>674</v>
-      </c>
-      <c r="B108" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>676</v>
+      </c>
+      <c r="B110" t="s">
         <v>677</v>
-      </c>
-      <c r="B110" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>678</v>
+      </c>
+      <c r="B111" t="s">
         <v>679</v>
-      </c>
-      <c r="B111" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>680</v>
+      </c>
+      <c r="B112" t="s">
         <v>681</v>
-      </c>
-      <c r="B112" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>682</v>
+      </c>
+      <c r="B113" t="s">
         <v>683</v>
-      </c>
-      <c r="B113" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>684</v>
+      </c>
+      <c r="B114" t="s">
         <v>685</v>
-      </c>
-      <c r="B114" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>687</v>
+      </c>
+      <c r="B116" t="s">
         <v>688</v>
-      </c>
-      <c r="B116" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>689</v>
+      </c>
+      <c r="B117" t="s">
         <v>690</v>
-      </c>
-      <c r="B117" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B119" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120" t="s">
         <v>694</v>
-      </c>
-      <c r="B120" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>695</v>
+      </c>
+      <c r="B121" t="s">
         <v>696</v>
-      </c>
-      <c r="B121" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B123" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B124" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B125" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>701</v>
+      </c>
+      <c r="B126" t="s">
         <v>702</v>
-      </c>
-      <c r="B126" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B127" t="s">
         <v>312</v>
@@ -22545,83 +22537,83 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>704</v>
+      </c>
+      <c r="B128" t="s">
         <v>705</v>
-      </c>
-      <c r="B128" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B130" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>708</v>
+      </c>
+      <c r="B131" t="s">
         <v>709</v>
-      </c>
-      <c r="B131" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>710</v>
+      </c>
+      <c r="B132" t="s">
         <v>711</v>
-      </c>
-      <c r="B132" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>714</v>
+      </c>
+      <c r="B135" t="s">
         <v>715</v>
-      </c>
-      <c r="B135" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>717</v>
+      </c>
+      <c r="B137" t="s">
         <v>718</v>
-      </c>
-      <c r="B137" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>719</v>
+      </c>
+      <c r="B138" t="s">
         <v>720</v>
-      </c>
-      <c r="B138" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B139" t="s">
         <v>325</v>
@@ -22629,339 +22621,339 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>722</v>
+      </c>
+      <c r="B140" t="s">
         <v>723</v>
-      </c>
-      <c r="B140" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>724</v>
+      </c>
+      <c r="B141" t="s">
         <v>725</v>
-      </c>
-      <c r="B141" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>726</v>
+      </c>
+      <c r="B142" t="s">
         <v>727</v>
-      </c>
-      <c r="B142" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B143" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>729</v>
+      </c>
+      <c r="B144" t="s">
         <v>730</v>
-      </c>
-      <c r="B144" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>732</v>
+      </c>
+      <c r="B146" t="s">
         <v>733</v>
-      </c>
-      <c r="B146" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>734</v>
+      </c>
+      <c r="B147" t="s">
         <v>735</v>
-      </c>
-      <c r="B147" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>736</v>
+      </c>
+      <c r="B148" t="s">
         <v>737</v>
-      </c>
-      <c r="B148" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>738</v>
+      </c>
+      <c r="B149" t="s">
         <v>739</v>
-      </c>
-      <c r="B149" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>740</v>
+      </c>
+      <c r="B150" t="s">
         <v>741</v>
-      </c>
-      <c r="B150" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>742</v>
+      </c>
+      <c r="B151" t="s">
         <v>743</v>
-      </c>
-      <c r="B151" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>744</v>
+      </c>
+      <c r="B152" t="s">
         <v>745</v>
-      </c>
-      <c r="B152" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>747</v>
+      </c>
+      <c r="B154" t="s">
         <v>748</v>
-      </c>
-      <c r="B154" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>750</v>
+      </c>
+      <c r="B156" t="s">
         <v>751</v>
-      </c>
-      <c r="B156" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B158" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>755</v>
+      </c>
+      <c r="B160" t="s">
         <v>756</v>
-      </c>
-      <c r="B160" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>757</v>
+      </c>
+      <c r="B161" t="s">
         <v>758</v>
-      </c>
-      <c r="B161" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>760</v>
+      </c>
+      <c r="B163" t="s">
         <v>761</v>
-      </c>
-      <c r="B163" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>763</v>
+      </c>
+      <c r="B165" t="s">
         <v>764</v>
-      </c>
-      <c r="B165" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>766</v>
+      </c>
+      <c r="B167" t="s">
         <v>767</v>
-      </c>
-      <c r="B167" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>768</v>
+      </c>
+      <c r="B168" t="s">
         <v>769</v>
-      </c>
-      <c r="B168" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>771</v>
+      </c>
+      <c r="B170" t="s">
         <v>772</v>
-      </c>
-      <c r="B170" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>774</v>
+      </c>
+      <c r="B172" t="s">
         <v>775</v>
-      </c>
-      <c r="B172" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>776</v>
+      </c>
+      <c r="B173" t="s">
         <v>777</v>
-      </c>
-      <c r="B173" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>778</v>
+      </c>
+      <c r="B174" t="s">
         <v>779</v>
-      </c>
-      <c r="B174" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>780</v>
+      </c>
+      <c r="B175" t="s">
         <v>781</v>
-      </c>
-      <c r="B175" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>782</v>
+      </c>
+      <c r="B176" t="s">
         <v>783</v>
-      </c>
-      <c r="B176" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>785</v>
+      </c>
+      <c r="B178" t="s">
         <v>786</v>
-      </c>
-      <c r="B178" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>787</v>
+      </c>
+      <c r="B179" t="s">
         <v>788</v>
-      </c>
-      <c r="B179" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>790</v>
+      </c>
+      <c r="B181" t="s">
         <v>791</v>
-      </c>
-      <c r="B181" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>792</v>
+      </c>
+      <c r="B182" t="s">
         <v>793</v>
-      </c>
-      <c r="B182" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>794</v>
+      </c>
+      <c r="B183" t="s">
         <v>795</v>
-      </c>
-      <c r="B183" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>796</v>
+      </c>
+      <c r="B184" t="s">
         <v>797</v>
-      </c>
-      <c r="B184" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>798</v>
+      </c>
+      <c r="B185" t="s">
         <v>799</v>
-      </c>
-      <c r="B185" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B186" t="s">
         <v>151</v>
@@ -22990,7 +22982,7 @@
         <v>163</v>
       </c>
       <c r="B190" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -23006,7 +22998,7 @@
         <v>461</v>
       </c>
       <c r="B192" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -23014,7 +23006,7 @@
         <v>165</v>
       </c>
       <c r="B193" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -23022,7 +23014,7 @@
         <v>166</v>
       </c>
       <c r="B194" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -23030,7 +23022,7 @@
         <v>167</v>
       </c>
       <c r="B195" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -23038,7 +23030,7 @@
         <v>168</v>
       </c>
       <c r="B196" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -23046,7 +23038,7 @@
         <v>169</v>
       </c>
       <c r="B197" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -23062,7 +23054,7 @@
         <v>172</v>
       </c>
       <c r="B199" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -23070,7 +23062,7 @@
         <v>173</v>
       </c>
       <c r="B200" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -23078,7 +23070,7 @@
         <v>174</v>
       </c>
       <c r="B201" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -23086,7 +23078,7 @@
         <v>175</v>
       </c>
       <c r="B202" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -23094,7 +23086,7 @@
         <v>176</v>
       </c>
       <c r="B203" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -23112,7 +23104,7 @@
         <v>179</v>
       </c>
       <c r="B206" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -23125,7 +23117,7 @@
         <v>181</v>
       </c>
       <c r="B208" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -23138,7 +23130,7 @@
         <v>183</v>
       </c>
       <c r="B210" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -23156,7 +23148,7 @@
         <v>186</v>
       </c>
       <c r="B213" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -23184,7 +23176,7 @@
         <v>191</v>
       </c>
       <c r="B218" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -23192,7 +23184,7 @@
         <v>192</v>
       </c>
       <c r="B219" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -23205,7 +23197,7 @@
         <v>194</v>
       </c>
       <c r="B221" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -23221,7 +23213,7 @@
         <v>197</v>
       </c>
       <c r="B223" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -23229,7 +23221,7 @@
         <v>198</v>
       </c>
       <c r="B224" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -23237,7 +23229,7 @@
         <v>199</v>
       </c>
       <c r="B225" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -23261,7 +23253,7 @@
         <v>204</v>
       </c>
       <c r="B228" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -23274,7 +23266,7 @@
         <v>206</v>
       </c>
       <c r="B230" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -23282,7 +23274,7 @@
         <v>207</v>
       </c>
       <c r="B231" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -23298,7 +23290,7 @@
         <v>209</v>
       </c>
       <c r="B233" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -23314,7 +23306,7 @@
         <v>212</v>
       </c>
       <c r="B235" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -23327,7 +23319,7 @@
         <v>214</v>
       </c>
       <c r="B237" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -23343,7 +23335,7 @@
         <v>217</v>
       </c>
       <c r="B239" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -23364,7 +23356,7 @@
         <v>221</v>
       </c>
       <c r="B242" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -23372,7 +23364,7 @@
         <v>222</v>
       </c>
       <c r="B243" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -23409,7 +23401,7 @@
         <v>229</v>
       </c>
       <c r="B248" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -23448,7 +23440,7 @@
         <v>237</v>
       </c>
       <c r="B254" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -23461,7 +23453,7 @@
         <v>239</v>
       </c>
       <c r="B256" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -23477,7 +23469,7 @@
         <v>242</v>
       </c>
       <c r="B258" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -23503,7 +23495,7 @@
         <v>247</v>
       </c>
       <c r="B262" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -23519,7 +23511,7 @@
         <v>250</v>
       </c>
       <c r="B264" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -23532,7 +23524,7 @@
         <v>252</v>
       </c>
       <c r="B266" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -23553,7 +23545,7 @@
         <v>256</v>
       </c>
       <c r="B269" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -23561,7 +23553,7 @@
         <v>257</v>
       </c>
       <c r="B270" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -23569,7 +23561,7 @@
         <v>258</v>
       </c>
       <c r="B271" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -23582,7 +23574,7 @@
         <v>260</v>
       </c>
       <c r="B273" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -23590,7 +23582,7 @@
         <v>261</v>
       </c>
       <c r="B274" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -23621,7 +23613,7 @@
         <v>266</v>
       </c>
       <c r="B279" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -23642,7 +23634,7 @@
         <v>269</v>
       </c>
       <c r="B282" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -23655,7 +23647,7 @@
         <v>271</v>
       </c>
       <c r="B284" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -23663,7 +23655,7 @@
         <v>272</v>
       </c>
       <c r="B285" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -23689,7 +23681,7 @@
         <v>277</v>
       </c>
       <c r="B289" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -23697,7 +23689,7 @@
         <v>278</v>
       </c>
       <c r="B290" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -23705,7 +23697,7 @@
         <v>279</v>
       </c>
       <c r="B291" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -23713,7 +23705,7 @@
         <v>280</v>
       </c>
       <c r="B292" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -23723,18 +23715,18 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>808</v>
+      </c>
+      <c r="B294" t="s">
         <v>809</v>
-      </c>
-      <c r="B294" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>810</v>
+      </c>
+      <c r="B295" t="s">
         <v>811</v>
-      </c>
-      <c r="B295" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -23742,7 +23734,7 @@
         <v>282</v>
       </c>
       <c r="B296" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -23750,7 +23742,7 @@
         <v>283</v>
       </c>
       <c r="B297" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -23763,7 +23755,7 @@
         <v>285</v>
       </c>
       <c r="B299" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -23771,7 +23763,7 @@
         <v>286</v>
       </c>
       <c r="B300" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -23784,7 +23776,7 @@
         <v>288</v>
       </c>
       <c r="B302" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -23792,7 +23784,7 @@
         <v>289</v>
       </c>
       <c r="B303" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -23800,7 +23792,7 @@
         <v>290</v>
       </c>
       <c r="B304" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -23808,7 +23800,7 @@
         <v>291</v>
       </c>
       <c r="B305" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -23816,7 +23808,7 @@
         <v>292</v>
       </c>
       <c r="B306" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -23824,7 +23816,7 @@
         <v>293</v>
       </c>
       <c r="B307" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -23832,7 +23824,7 @@
         <v>294</v>
       </c>
       <c r="B308" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -23840,7 +23832,7 @@
         <v>295</v>
       </c>
       <c r="B309" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -23848,7 +23840,7 @@
         <v>296</v>
       </c>
       <c r="B310" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -23861,7 +23853,7 @@
         <v>298</v>
       </c>
       <c r="B312" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -23869,7 +23861,7 @@
         <v>299</v>
       </c>
       <c r="B313" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -23877,7 +23869,7 @@
         <v>300</v>
       </c>
       <c r="B314" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -23885,7 +23877,7 @@
         <v>301</v>
       </c>
       <c r="B315" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -23893,7 +23885,7 @@
         <v>302</v>
       </c>
       <c r="B316" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -23906,7 +23898,7 @@
         <v>304</v>
       </c>
       <c r="B318" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -23914,7 +23906,7 @@
         <v>305</v>
       </c>
       <c r="B319" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -23922,7 +23914,7 @@
         <v>306</v>
       </c>
       <c r="B320" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -23935,7 +23927,7 @@
         <v>308</v>
       </c>
       <c r="B322" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -23943,7 +23935,7 @@
         <v>309</v>
       </c>
       <c r="B323" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -23951,7 +23943,7 @@
         <v>310</v>
       </c>
       <c r="B324" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -23967,7 +23959,7 @@
         <v>313</v>
       </c>
       <c r="B326" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -23975,7 +23967,7 @@
         <v>314</v>
       </c>
       <c r="B327" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -23983,7 +23975,7 @@
         <v>315</v>
       </c>
       <c r="B328" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -23996,7 +23988,7 @@
         <v>317</v>
       </c>
       <c r="B330" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -24004,7 +23996,7 @@
         <v>318</v>
       </c>
       <c r="B331" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -24022,7 +24014,7 @@
         <v>321</v>
       </c>
       <c r="B334" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -24035,7 +24027,7 @@
         <v>323</v>
       </c>
       <c r="B336" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -24051,7 +24043,7 @@
         <v>326</v>
       </c>
       <c r="B338" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -24059,7 +24051,7 @@
         <v>327</v>
       </c>
       <c r="B339" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -24067,7 +24059,7 @@
         <v>328</v>
       </c>
       <c r="B340" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -24075,7 +24067,7 @@
         <v>329</v>
       </c>
       <c r="B341" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -24083,7 +24075,7 @@
         <v>330</v>
       </c>
       <c r="B342" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -24091,7 +24083,7 @@
         <v>331</v>
       </c>
       <c r="B343" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -24104,7 +24096,7 @@
         <v>333</v>
       </c>
       <c r="B345" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -24112,7 +24104,7 @@
         <v>334</v>
       </c>
       <c r="B346" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -24120,7 +24112,7 @@
         <v>335</v>
       </c>
       <c r="B347" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -24128,7 +24120,7 @@
         <v>336</v>
       </c>
       <c r="B348" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -24136,7 +24128,7 @@
         <v>337</v>
       </c>
       <c r="B349" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -24144,7 +24136,7 @@
         <v>338</v>
       </c>
       <c r="B350" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -24152,7 +24144,7 @@
         <v>339</v>
       </c>
       <c r="B351" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -24165,7 +24157,7 @@
         <v>341</v>
       </c>
       <c r="B353" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -24178,7 +24170,7 @@
         <v>343</v>
       </c>
       <c r="B355" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -24191,7 +24183,7 @@
         <v>345</v>
       </c>
       <c r="B357" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -24204,7 +24196,7 @@
         <v>347</v>
       </c>
       <c r="B359" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -24212,7 +24204,7 @@
         <v>348</v>
       </c>
       <c r="B360" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -24225,7 +24217,7 @@
         <v>350</v>
       </c>
       <c r="B362" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -24238,7 +24230,7 @@
         <v>352</v>
       </c>
       <c r="B364" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -24251,7 +24243,7 @@
         <v>354</v>
       </c>
       <c r="B366" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -24259,7 +24251,7 @@
         <v>355</v>
       </c>
       <c r="B367" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -24272,7 +24264,7 @@
         <v>357</v>
       </c>
       <c r="B369" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -24285,7 +24277,7 @@
         <v>359</v>
       </c>
       <c r="B371" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -24293,7 +24285,7 @@
         <v>360</v>
       </c>
       <c r="B372" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -24301,7 +24293,7 @@
         <v>361</v>
       </c>
       <c r="B373" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -24309,7 +24301,7 @@
         <v>362</v>
       </c>
       <c r="B374" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -24317,7 +24309,7 @@
         <v>363</v>
       </c>
       <c r="B375" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -24325,7 +24317,7 @@
         <v>364</v>
       </c>
       <c r="B376" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -24335,10 +24327,10 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B378" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -24346,7 +24338,7 @@
         <v>366</v>
       </c>
       <c r="B379" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -24359,15 +24351,15 @@
         <v>368</v>
       </c>
       <c r="B381" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B382" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -24375,7 +24367,7 @@
         <v>369</v>
       </c>
       <c r="B383" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -24383,7 +24375,7 @@
         <v>370</v>
       </c>
       <c r="B384" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -24391,7 +24383,7 @@
         <v>371</v>
       </c>
       <c r="B385" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -24399,7 +24391,7 @@
         <v>372</v>
       </c>
       <c r="B386" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -24432,7 +24424,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B2" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A2,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24451,7 +24443,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B4" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A4,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24511,7 +24503,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B10" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A10,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24620,7 +24612,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B22" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A22,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24629,7 +24621,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B23" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A23,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24809,7 +24801,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B43" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A43,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -24836,7 +24828,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B46" t="str">
         <f>IF(LEN(_xlfn.IFNA(VLOOKUP(A46,Generador!G:G,1,FALSE),""))&gt;0,"x","")</f>
@@ -26151,212 +26143,212 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
